--- a/SubRES_TMPL/SubRES_Hydrogen.xlsx
+++ b/SubRES_TMPL/SubRES_Hydrogen.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\Irish-TIMES_v2\Irish-TIMES_2p0_v04\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\I3p0_ELC_12TS_1REG_2020.09.07\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB3866-26D2-4407-8E4B-483A1F7A92B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="48" r:id="rId1"/>
@@ -120,17 +121,25 @@
     <definedName name="yearg">#REF!</definedName>
     <definedName name="Zinc_Content_ppm_wt">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="140">
   <si>
     <t>~FI_T</t>
   </si>
@@ -255,19 +264,7 @@
     <t>Technical Efficiency - 2050</t>
   </si>
   <si>
-    <t>* Biomass pellet gasification</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>* Coal gasification</t>
-  </si>
-  <si>
-    <t>* Waste gasification</t>
-  </si>
-  <si>
-    <t>* Natural gas steam reforming</t>
   </si>
   <si>
     <t>* Electrolysis</t>
@@ -297,100 +294,7 @@
     <t>S_EFF</t>
   </si>
   <si>
-    <t>CAP_BND~2010</t>
-  </si>
-  <si>
-    <t>CAP_BND~0</t>
-  </si>
-  <si>
-    <t>STGIN_BND~2010~P</t>
-  </si>
-  <si>
-    <t>STGIN_BND~2030~P</t>
-  </si>
-  <si>
-    <t>STGIN_BND~P~0</t>
-  </si>
-  <si>
-    <t>STGIN_BND~2010~S</t>
-  </si>
-  <si>
-    <t>STGIN_BND~2030~S</t>
-  </si>
-  <si>
-    <t>STGIN_BND~S~0</t>
-  </si>
-  <si>
-    <t>STGIN_BND~2010~A</t>
-  </si>
-  <si>
-    <t>STGIN_BND~2030~A</t>
-  </si>
-  <si>
-    <t>STGIN_BND~A~0</t>
-  </si>
-  <si>
-    <t>STGIN_BND~2010~W</t>
-  </si>
-  <si>
-    <t>STGIN_BND~2030~W</t>
-  </si>
-  <si>
-    <t>STGIN_BND~W~0</t>
-  </si>
-  <si>
     <t>Storage efficiency</t>
-  </si>
-  <si>
-    <t>Capacity limit - 2030</t>
-  </si>
-  <si>
-    <t>Capacity limit - interpolation rule</t>
-  </si>
-  <si>
-    <t>Bound on input flow of storage process - Spring - 2010</t>
-  </si>
-  <si>
-    <t>Bound on input flow of storage process - Spring - 2030</t>
-  </si>
-  <si>
-    <t>Bound on input flow of storage process - Spring - interpolation rule</t>
-  </si>
-  <si>
-    <t>Bound on input flow of storage process - Summer - 2010</t>
-  </si>
-  <si>
-    <t>Bound on input flow of storage process - Summer - 2030</t>
-  </si>
-  <si>
-    <t>Bound on input flow of storage process - Summer - interpolation rule</t>
-  </si>
-  <si>
-    <t>Bound on input flow of storage process - Autumn - 2010</t>
-  </si>
-  <si>
-    <t>Bound on input flow of storage process - Autumn - 2030</t>
-  </si>
-  <si>
-    <t>Bound on input flow of storage process - Autumn - interpolation rule</t>
-  </si>
-  <si>
-    <t>Bound on input flow of storage process - Winter - 2010</t>
-  </si>
-  <si>
-    <t>Bound on input flow of storage process - Winter - 2030</t>
-  </si>
-  <si>
-    <t>Bound on input flow of storage process - Winter - interpolation rule</t>
-  </si>
-  <si>
-    <t>Economic lifetime of new capacity</t>
-  </si>
-  <si>
-    <t>unit of capacity</t>
-  </si>
-  <si>
-    <t>3= Full interpolation &amp; extrapolation</t>
   </si>
   <si>
     <t>PJ</t>
@@ -453,9 +357,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>CAP_BND~2030</t>
-  </si>
-  <si>
     <t>Lifetime</t>
   </si>
   <si>
@@ -486,30 +387,6 @@
     <t>Source: UK TIMES</t>
   </si>
   <si>
-    <t>Hydrogen production - Centralized Biomass pellet gasification CCS</t>
-  </si>
-  <si>
-    <t>Hydrogen production - Centralized Biomass pellet gasification</t>
-  </si>
-  <si>
-    <t>Hydrogen production - Centralized Coal gasification CCS</t>
-  </si>
-  <si>
-    <t>Hydrogen production - Centralized Coal gasification</t>
-  </si>
-  <si>
-    <t>Hydrogen production - Centralized Waste gasification CCS</t>
-  </si>
-  <si>
-    <t>Hydrogen production - Centralized Waste gasification</t>
-  </si>
-  <si>
-    <t>Hydrogen production - Centralized Natural gas steam reforming CCS</t>
-  </si>
-  <si>
-    <t>Hydrogen production - Centralized Natural gas steam reforming</t>
-  </si>
-  <si>
     <t>Hydrogen production - Centralized Electrolysis</t>
   </si>
   <si>
@@ -525,18 +402,6 @@
     <t>Emissions coefficient</t>
   </si>
   <si>
-    <t>SUPCOA</t>
-  </si>
-  <si>
-    <t>SUPWAS</t>
-  </si>
-  <si>
-    <t>SUPGAS</t>
-  </si>
-  <si>
-    <t>SUPBIO</t>
-  </si>
-  <si>
     <t>ENV_ACT~SUPCO2N</t>
   </si>
   <si>
@@ -549,12 +414,6 @@
     <t>kt/PJ-in</t>
   </si>
   <si>
-    <t>Fuel EF</t>
-  </si>
-  <si>
-    <t>Bio</t>
-  </si>
-  <si>
     <t>Coal</t>
   </si>
   <si>
@@ -562,9 +421,6 @@
   </si>
   <si>
     <t>Gas</t>
-  </si>
-  <si>
-    <t>Capture rate</t>
   </si>
   <si>
     <t>assumed (as HFO: review)</t>
@@ -615,13 +471,7 @@
     <t>Fixed Operational &amp; Maintenance Cost (2010 prices)</t>
   </si>
   <si>
-    <t>Capacity limit</t>
-  </si>
-  <si>
     <t>STG</t>
-  </si>
-  <si>
-    <t>all disabled</t>
   </si>
   <si>
     <t>~FI_T: EUR10</t>
@@ -646,9 +496,6 @@
   </si>
   <si>
     <t>ENV_ACT~Sink_SUPCO2N</t>
-  </si>
-  <si>
-    <t>SUPH2GC, Sink_SUPCO2N</t>
   </si>
   <si>
     <t>SUPH2GC</t>
@@ -693,9 +540,6 @@
     <t>ELCC</t>
   </si>
   <si>
-    <t>Hydrogen production - Decentralized Natural gas steam reforming</t>
-  </si>
-  <si>
     <t>Hydrogen production - Decentralized Electrolysis</t>
   </si>
   <si>
@@ -705,78 +549,67 @@
     <t>HYDROGEN decentralized production (H2PD)</t>
   </si>
   <si>
-    <t>SH2PCBIO_02</t>
-  </si>
-  <si>
-    <t>SH2PCBIO_01</t>
-  </si>
-  <si>
-    <t>SH2PCCOA_02</t>
-  </si>
-  <si>
-    <t>SH2PCCOA_01</t>
-  </si>
-  <si>
-    <t>SH2PCWAS_02</t>
-  </si>
-  <si>
-    <t>SH2PCWAS_01</t>
-  </si>
-  <si>
-    <t>SH2PCGAS_02</t>
-  </si>
-  <si>
-    <t>SH2PCGAS_01</t>
-  </si>
-  <si>
     <t>SH2PCELC_01</t>
   </si>
   <si>
-    <t>SH2PDGAS_01</t>
+    <t>SH2PDELC_01</t>
   </si>
   <si>
-    <t>SH2PDELC_01</t>
+    <t>No</t>
+    <phoneticPr fontId="92" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+    <phoneticPr fontId="92" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="21">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="General_)"/>
-    <numFmt numFmtId="172" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
-    <numFmt numFmtId="177" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="\(##\);\(##\)"/>
-    <numFmt numFmtId="180" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="181" formatCode="_-[$€]* #,##0.00_-;\-[$€]* #,##0.00_-;_-[$€]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="29">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="181" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0%"/>
+    <numFmt numFmtId="183" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="185" formatCode="General_)"/>
+    <numFmt numFmtId="186" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="187" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="188" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="189" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="190" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
+    <numFmt numFmtId="191" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
+    <numFmt numFmtId="192" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="193" formatCode="\(##\);\(##\)"/>
+    <numFmt numFmtId="194" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="195" formatCode="_-[$€]* #,##0.00_-;\-[$€]* #,##0.00_-;_-[$€]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="196" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="197" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="198" formatCode="_(&quot;£&quot;* #,##0_);_(&quot;£&quot;* \(#,##0\);_(&quot;£&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="199" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="200" formatCode="_-[$€-2]* #,##0.000_-;\-[$€-2]* #,##0.000_-;_-[$€-2]* &quot;-&quot;??_-"/>
+    <numFmt numFmtId="201" formatCode="0.0000"/>
+    <numFmt numFmtId="202" formatCode="#,##0.00;[Red]\-#,##0.00;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="93">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -790,7 +623,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -815,14 +648,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -835,7 +668,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -843,13 +676,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="24"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -857,7 +690,7 @@
       <b/>
       <sz val="11"/>
       <color theme="7" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -865,14 +698,14 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="7" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -881,14 +714,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -896,27 +729,27 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1143,7 +976,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="??"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1203,7 +1036,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
@@ -1214,8 +1047,185 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="36"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="92">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1492,8 +1502,238 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1822,8 +2062,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4964">
+  <cellStyleXfs count="5086">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
@@ -1848,7 +2220,7 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="7" borderId="0"/>
     <xf numFmtId="2" fontId="1" fillId="8" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2257,239 +2629,239 @@
     <xf numFmtId="0" fontId="25" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2619,23 +2991,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2645,13 +3017,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2672,20 +3044,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2708,7 +3080,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2790,7 +3162,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="185" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -4912,240 +5284,240 @@
     <xf numFmtId="49" fontId="2" fillId="46" borderId="19">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="11" borderId="20">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -5174,102 +5546,102 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="196" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5647,7 +6019,7 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5701,17 +6073,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -5802,7 +6174,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="185" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -6046,47 +6418,47 @@
     <xf numFmtId="0" fontId="9" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="66" fillId="0" borderId="0">
+    <xf numFmtId="193" fontId="66" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -6133,7 +6505,7 @@
     <xf numFmtId="0" fontId="29" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="44" fillId="49" borderId="4" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="194" fontId="44" fillId="49" borderId="4" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6917,8 +7289,179 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="73" fillId="55" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="1" fillId="80" borderId="0"/>
+    <xf numFmtId="0" fontId="74" fillId="56" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="80" fillId="54" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="82" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="83" fillId="55" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="81" borderId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="82" borderId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="83" borderId="4"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="198" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="84" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="85" borderId="4"/>
+    <xf numFmtId="2" fontId="1" fillId="86" borderId="36"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="1" fillId="87" borderId="38" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="89" borderId="4"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="80" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="18" borderId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="19" borderId="0"/>
+    <xf numFmtId="202" fontId="2" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="90" fillId="90" borderId="4"/>
+    <xf numFmtId="2" fontId="90" fillId="80" borderId="37" applyBorder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="88" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="201" fontId="1" fillId="87" borderId="38" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="91" fillId="91" borderId="39" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6973,7 +7516,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="13" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6991,17 +7534,15 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="18" borderId="0" xfId="17" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="7" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="18" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="13" borderId="0" xfId="18" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7011,13 +7552,28 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="1678"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="25"/>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" xfId="25" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="38" borderId="0" xfId="1678" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="19" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="51" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7027,23 +7583,14 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="19" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="51" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4964">
+  <cellStyles count="5086">
+    <cellStyle name=" 1" xfId="5024" xr:uid="{47F204DC-D8CC-4760-9708-C7A25DEF9F9C}"/>
+    <cellStyle name=" 1 2" xfId="5025" xr:uid="{ACE65104-4240-4E38-B998-A1E3277A5F9D}"/>
+    <cellStyle name=" 1 3" xfId="5026" xr:uid="{9BEA3B3C-13B8-4A08-B402-A4A4D5CDAF2E}"/>
+    <cellStyle name=" 1 4" xfId="5027" xr:uid="{69534CE1-A566-4186-8312-A080F3BBE15E}"/>
+    <cellStyle name=" 1 5" xfId="5028" xr:uid="{B89FE035-245E-43DD-9E44-E2002E14F6D1}"/>
+    <cellStyle name=" 1 6" xfId="5029" xr:uid="{5F006BB0-870C-438B-A49A-D00E75206AFF}"/>
     <cellStyle name="???????" xfId="1664" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% - Accent1 10" xfId="1665" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Accent1 10 2" xfId="1666" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -7103,6 +7650,7 @@
     <cellStyle name="20% - Accent1 41" xfId="1704" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="20% - Accent1 42" xfId="1705" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="20% - Accent1 43" xfId="1706" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - Accent1 44" xfId="4976" xr:uid="{A5D51517-78FE-46B6-8E9E-BE97076A94C9}"/>
     <cellStyle name="20% - Accent1 5" xfId="40" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="20% - Accent1 5 2" xfId="1708" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="20% - Accent1 5 3" xfId="1707" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
@@ -7175,6 +7723,7 @@
     <cellStyle name="20% - Accent2 41" xfId="1756" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
     <cellStyle name="20% - Accent2 42" xfId="1757" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
     <cellStyle name="20% - Accent2 43" xfId="1758" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - Accent2 44" xfId="4977" xr:uid="{0DF4153E-85F4-4D5A-9F99-1B572EBFE0F8}"/>
     <cellStyle name="20% - Accent2 5" xfId="60" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
     <cellStyle name="20% - Accent2 5 2" xfId="1760" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
     <cellStyle name="20% - Accent2 5 3" xfId="1759" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
@@ -7247,6 +7796,7 @@
     <cellStyle name="20% - Accent3 41" xfId="1808" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
     <cellStyle name="20% - Accent3 42" xfId="1809" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
     <cellStyle name="20% - Accent3 43" xfId="1810" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="20% - Accent3 44" xfId="4978" xr:uid="{C0122D9B-6179-4885-8E2A-389717C03266}"/>
     <cellStyle name="20% - Accent3 5" xfId="80" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
     <cellStyle name="20% - Accent3 5 2" xfId="1812" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
     <cellStyle name="20% - Accent3 5 3" xfId="1811" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
@@ -7319,6 +7869,7 @@
     <cellStyle name="20% - Accent4 41" xfId="1860" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
     <cellStyle name="20% - Accent4 42" xfId="1861" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="20% - Accent4 43" xfId="1862" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="20% - Accent4 44" xfId="4979" xr:uid="{6BE6767C-BE5B-46D4-B0A8-5CF173036D8E}"/>
     <cellStyle name="20% - Accent4 5" xfId="100" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
     <cellStyle name="20% - Accent4 5 2" xfId="1864" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="20% - Accent4 5 3" xfId="1863" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
@@ -7386,6 +7937,7 @@
     <cellStyle name="20% - Accent5 41" xfId="1907" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
     <cellStyle name="20% - Accent5 42" xfId="1908" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
     <cellStyle name="20% - Accent5 43" xfId="1909" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="20% - Accent5 44" xfId="4980" xr:uid="{44A2E74A-5AEE-4845-9F6A-314E60E535DB}"/>
     <cellStyle name="20% - Accent5 5" xfId="120" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
     <cellStyle name="20% - Accent5 6" xfId="121" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
     <cellStyle name="20% - Accent5 7" xfId="122" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
@@ -7450,6 +8002,7 @@
     <cellStyle name="20% - Accent6 41" xfId="1951" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
     <cellStyle name="20% - Accent6 42" xfId="1952" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
     <cellStyle name="20% - Accent6 43" xfId="1953" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="20% - Accent6 44" xfId="4981" xr:uid="{E9E1F4CF-AD21-4504-AFDD-BD2ACF5D0724}"/>
     <cellStyle name="20% - Accent6 5" xfId="140" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
     <cellStyle name="20% - Accent6 5 2" xfId="1955" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
     <cellStyle name="20% - Accent6 5 3" xfId="1954" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
@@ -7529,6 +8082,7 @@
     <cellStyle name="40% - Accent1 41" xfId="2009" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
     <cellStyle name="40% - Accent1 42" xfId="2010" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
     <cellStyle name="40% - Accent1 43" xfId="2011" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="40% - Accent1 44" xfId="4982" xr:uid="{B3C19F95-E501-4A72-885B-7D2852063640}"/>
     <cellStyle name="40% - Accent1 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
     <cellStyle name="40% - Accent1 5 2" xfId="2013" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
     <cellStyle name="40% - Accent1 5 3" xfId="2012" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
@@ -7596,6 +8150,7 @@
     <cellStyle name="40% - Accent2 41" xfId="2056" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
     <cellStyle name="40% - Accent2 42" xfId="2057" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
     <cellStyle name="40% - Accent2 43" xfId="2058" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="40% - Accent2 44" xfId="4983" xr:uid="{B72A979C-291C-492C-A1C6-818C08D05655}"/>
     <cellStyle name="40% - Accent2 5" xfId="181" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
     <cellStyle name="40% - Accent2 6" xfId="182" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
     <cellStyle name="40% - Accent2 7" xfId="183" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
@@ -7660,6 +8215,7 @@
     <cellStyle name="40% - Accent3 41" xfId="2100" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
     <cellStyle name="40% - Accent3 42" xfId="2101" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
     <cellStyle name="40% - Accent3 43" xfId="2102" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="40% - Accent3 44" xfId="4984" xr:uid="{93E37870-5CAC-4EAA-B215-970431635810}"/>
     <cellStyle name="40% - Accent3 5" xfId="201" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
     <cellStyle name="40% - Accent3 5 2" xfId="2104" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
     <cellStyle name="40% - Accent3 5 3" xfId="2103" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
@@ -7732,6 +8288,7 @@
     <cellStyle name="40% - Accent4 41" xfId="2152" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
     <cellStyle name="40% - Accent4 42" xfId="2153" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
     <cellStyle name="40% - Accent4 43" xfId="2154" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="40% - Accent4 44" xfId="4985" xr:uid="{E910972C-A7F1-4F8A-8266-8A591D32041C}"/>
     <cellStyle name="40% - Accent4 5" xfId="221" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
     <cellStyle name="40% - Accent4 5 2" xfId="2156" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
     <cellStyle name="40% - Accent4 5 3" xfId="2155" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
@@ -7804,6 +8361,7 @@
     <cellStyle name="40% - Accent5 41" xfId="2204" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
     <cellStyle name="40% - Accent5 42" xfId="2205" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
     <cellStyle name="40% - Accent5 43" xfId="2206" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
+    <cellStyle name="40% - Accent5 44" xfId="4986" xr:uid="{E9982FF6-77EC-4B9A-9CD0-53F945ECBEC0}"/>
     <cellStyle name="40% - Accent5 5" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
     <cellStyle name="40% - Accent5 5 2" xfId="2208" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
     <cellStyle name="40% - Accent5 5 3" xfId="2207" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
@@ -7876,6 +8434,7 @@
     <cellStyle name="40% - Accent6 41" xfId="2256" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
     <cellStyle name="40% - Accent6 42" xfId="2257" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
     <cellStyle name="40% - Accent6 43" xfId="2258" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
+    <cellStyle name="40% - Accent6 44" xfId="4987" xr:uid="{9988B8A8-7974-4731-A374-3FFD7CE02128}"/>
     <cellStyle name="40% - Accent6 5" xfId="261" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
     <cellStyle name="40% - Accent6 5 2" xfId="2260" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
     <cellStyle name="40% - Accent6 5 3" xfId="2259" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
@@ -7947,6 +8506,7 @@
     <cellStyle name="60% - Accent1 41" xfId="2313" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
     <cellStyle name="60% - Accent1 42" xfId="2314" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
     <cellStyle name="60% - Accent1 43" xfId="2315" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="60% - Accent1 44" xfId="4988" xr:uid="{14B463DB-5ED5-42D7-82C4-49A0C9630D95}"/>
     <cellStyle name="60% - Accent1 5" xfId="2316" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
     <cellStyle name="60% - Accent1 5 2" xfId="2317" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
     <cellStyle name="60% - Accent1 6" xfId="2318" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
@@ -8004,6 +8564,7 @@
     <cellStyle name="60% - Accent2 41" xfId="2360" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
     <cellStyle name="60% - Accent2 42" xfId="2361" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
     <cellStyle name="60% - Accent2 43" xfId="2362" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="60% - Accent2 44" xfId="4989" xr:uid="{FF45A842-140A-40D6-B081-098467C518D0}"/>
     <cellStyle name="60% - Accent2 5" xfId="2363" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
     <cellStyle name="60% - Accent2 5 2" xfId="2364" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
     <cellStyle name="60% - Accent2 6" xfId="2365" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
@@ -8061,6 +8622,7 @@
     <cellStyle name="60% - Accent3 41" xfId="2407" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
     <cellStyle name="60% - Accent3 42" xfId="2408" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
     <cellStyle name="60% - Accent3 43" xfId="2409" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="60% - Accent3 44" xfId="4990" xr:uid="{7C4B89DB-3FEA-4CD1-A6CA-C183822BA0D3}"/>
     <cellStyle name="60% - Accent3 5" xfId="2410" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
     <cellStyle name="60% - Accent3 5 2" xfId="2411" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
     <cellStyle name="60% - Accent3 6" xfId="2412" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
@@ -8118,6 +8680,7 @@
     <cellStyle name="60% - Accent4 41" xfId="2454" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
     <cellStyle name="60% - Accent4 42" xfId="2455" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
     <cellStyle name="60% - Accent4 43" xfId="2456" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="60% - Accent4 44" xfId="4991" xr:uid="{0C6291D6-638E-4D5B-9C9E-57A3DE7A2F35}"/>
     <cellStyle name="60% - Accent4 5" xfId="2457" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
     <cellStyle name="60% - Accent4 5 2" xfId="2458" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
     <cellStyle name="60% - Accent4 6" xfId="2459" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
@@ -8175,6 +8738,7 @@
     <cellStyle name="60% - Accent5 41" xfId="2501" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
     <cellStyle name="60% - Accent5 42" xfId="2502" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
     <cellStyle name="60% - Accent5 43" xfId="2503" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="60% - Accent5 44" xfId="4992" xr:uid="{01349CF8-2023-4372-BA15-70ADD5533791}"/>
     <cellStyle name="60% - Accent5 5" xfId="2504" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
     <cellStyle name="60% - Accent5 5 2" xfId="2505" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
     <cellStyle name="60% - Accent5 6" xfId="2506" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
@@ -8232,6 +8796,7 @@
     <cellStyle name="60% - Accent6 41" xfId="2548" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
     <cellStyle name="60% - Accent6 42" xfId="2549" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
     <cellStyle name="60% - Accent6 43" xfId="2550" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
+    <cellStyle name="60% - Accent6 44" xfId="4993" xr:uid="{16CCE200-3F98-4472-AA0E-025C77BE3270}"/>
     <cellStyle name="60% - Accent6 5" xfId="2551" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
     <cellStyle name="60% - Accent6 5 2" xfId="2552" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
     <cellStyle name="60% - Accent6 6" xfId="2553" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
@@ -8247,7 +8812,7 @@
     <cellStyle name="60% - Akzent6" xfId="2563" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
     <cellStyle name="60% - Cor4 2" xfId="2564" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
     <cellStyle name="a_Calc_Outputs" xfId="3951" xr:uid="{5D7DE18C-D43C-48A5-82EA-2B64F4227A21}"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent1 10" xfId="2565" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
     <cellStyle name="Accent1 11" xfId="2566" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
     <cellStyle name="Accent1 12" xfId="2567" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
@@ -8355,6 +8920,7 @@
     <cellStyle name="Accent2 41" xfId="2649" xr:uid="{00000000-0005-0000-0000-00001A050000}"/>
     <cellStyle name="Accent2 42" xfId="2650" xr:uid="{00000000-0005-0000-0000-00001B050000}"/>
     <cellStyle name="Accent2 43" xfId="2651" xr:uid="{00000000-0005-0000-0000-00001C050000}"/>
+    <cellStyle name="Accent2 44" xfId="4994" xr:uid="{7FB83865-4D2D-4647-B623-BDE92244DB06}"/>
     <cellStyle name="Accent2 5" xfId="2652" xr:uid="{00000000-0005-0000-0000-00001D050000}"/>
     <cellStyle name="Accent2 5 2" xfId="2653" xr:uid="{00000000-0005-0000-0000-00001E050000}"/>
     <cellStyle name="Accent2 6" xfId="2654" xr:uid="{00000000-0005-0000-0000-00001F050000}"/>
@@ -8412,6 +8978,7 @@
     <cellStyle name="Accent3 41" xfId="2696" xr:uid="{00000000-0005-0000-0000-000053050000}"/>
     <cellStyle name="Accent3 42" xfId="2697" xr:uid="{00000000-0005-0000-0000-000054050000}"/>
     <cellStyle name="Accent3 43" xfId="2698" xr:uid="{00000000-0005-0000-0000-000055050000}"/>
+    <cellStyle name="Accent3 44" xfId="4995" xr:uid="{67B8C629-0EFC-435A-BD62-7E169C02328B}"/>
     <cellStyle name="Accent3 5" xfId="2699" xr:uid="{00000000-0005-0000-0000-000056050000}"/>
     <cellStyle name="Accent3 5 2" xfId="2700" xr:uid="{00000000-0005-0000-0000-000057050000}"/>
     <cellStyle name="Accent3 6" xfId="2701" xr:uid="{00000000-0005-0000-0000-000058050000}"/>
@@ -8469,6 +9036,7 @@
     <cellStyle name="Accent4 41" xfId="2743" xr:uid="{00000000-0005-0000-0000-00008C050000}"/>
     <cellStyle name="Accent4 42" xfId="2744" xr:uid="{00000000-0005-0000-0000-00008D050000}"/>
     <cellStyle name="Accent4 43" xfId="2745" xr:uid="{00000000-0005-0000-0000-00008E050000}"/>
+    <cellStyle name="Accent4 44" xfId="4996" xr:uid="{D9FB6579-A628-475E-AD3A-69902B98D99D}"/>
     <cellStyle name="Accent4 5" xfId="2746" xr:uid="{00000000-0005-0000-0000-00008F050000}"/>
     <cellStyle name="Accent4 5 2" xfId="2747" xr:uid="{00000000-0005-0000-0000-000090050000}"/>
     <cellStyle name="Accent4 6" xfId="2748" xr:uid="{00000000-0005-0000-0000-000091050000}"/>
@@ -8523,6 +9091,7 @@
     <cellStyle name="Accent5 41" xfId="2787" xr:uid="{00000000-0005-0000-0000-0000C2050000}"/>
     <cellStyle name="Accent5 42" xfId="2788" xr:uid="{00000000-0005-0000-0000-0000C3050000}"/>
     <cellStyle name="Accent5 43" xfId="2789" xr:uid="{00000000-0005-0000-0000-0000C4050000}"/>
+    <cellStyle name="Accent5 44" xfId="4997" xr:uid="{376CA180-D2BE-4152-A778-736BBA3684FD}"/>
     <cellStyle name="Accent5 5" xfId="2790" xr:uid="{00000000-0005-0000-0000-0000C5050000}"/>
     <cellStyle name="Accent5 5 2" xfId="2791" xr:uid="{00000000-0005-0000-0000-0000C6050000}"/>
     <cellStyle name="Accent5 6" xfId="2792" xr:uid="{00000000-0005-0000-0000-0000C7050000}"/>
@@ -8580,6 +9149,7 @@
     <cellStyle name="Accent6 41" xfId="2834" xr:uid="{00000000-0005-0000-0000-0000FB050000}"/>
     <cellStyle name="Accent6 42" xfId="2835" xr:uid="{00000000-0005-0000-0000-0000FC050000}"/>
     <cellStyle name="Accent6 43" xfId="2836" xr:uid="{00000000-0005-0000-0000-0000FD050000}"/>
+    <cellStyle name="Accent6 44" xfId="4998" xr:uid="{4EAABFF7-F227-4489-BEC9-9980A4DF8889}"/>
     <cellStyle name="Accent6 5" xfId="2837" xr:uid="{00000000-0005-0000-0000-0000FE050000}"/>
     <cellStyle name="Accent6 5 2" xfId="2838" xr:uid="{00000000-0005-0000-0000-0000FF050000}"/>
     <cellStyle name="Accent6 6" xfId="2839" xr:uid="{00000000-0005-0000-0000-000000060000}"/>
@@ -8604,9 +9174,17 @@
     <cellStyle name="Akzent4" xfId="2858" xr:uid="{00000000-0005-0000-0000-000013060000}"/>
     <cellStyle name="Akzent5" xfId="2859" xr:uid="{00000000-0005-0000-0000-000014060000}"/>
     <cellStyle name="Akzent6" xfId="2860" xr:uid="{00000000-0005-0000-0000-000015060000}"/>
+    <cellStyle name="Assumption" xfId="5030" xr:uid="{EB477B46-A00F-4522-8584-66F754C65C19}"/>
     <cellStyle name="Assumptions" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Attrib" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Attrib 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Attrib 2 2" xfId="5031" xr:uid="{5F6D27F2-DA41-4FF3-B5DF-1BC63F372EE9}"/>
+    <cellStyle name="Attrib 2 3" xfId="4971" xr:uid="{21BED883-C5E6-4993-8990-C0F593ECD8F5}"/>
+    <cellStyle name="Attrib 2 4" xfId="4965" xr:uid="{EE116D55-808C-430C-95DD-6389AD74F77A}"/>
+    <cellStyle name="Attrib 3" xfId="5053" xr:uid="{E1ECE484-0A4A-422C-A248-9BFAA34F59BD}"/>
+    <cellStyle name="Attrib 4" xfId="4999" xr:uid="{BAC8A48D-C7D4-47F2-842F-8FD7DAE80DE5}"/>
+    <cellStyle name="Attrib 5" xfId="4970" xr:uid="{B905F06E-0B73-4C51-84C8-D4E82382C380}"/>
+    <cellStyle name="Attrib 6" xfId="4964" xr:uid="{CA65AFB1-3E93-40A6-BEC8-5478E770F483}"/>
     <cellStyle name="Ausgabe" xfId="2861" xr:uid="{00000000-0005-0000-0000-000016060000}"/>
     <cellStyle name="Bad 10" xfId="2862" xr:uid="{00000000-0005-0000-0000-000018060000}"/>
     <cellStyle name="Bad 11" xfId="2863" xr:uid="{00000000-0005-0000-0000-000019060000}"/>
@@ -8658,6 +9236,7 @@
     <cellStyle name="Bad 41" xfId="2899" xr:uid="{00000000-0005-0000-0000-000047060000}"/>
     <cellStyle name="Bad 42" xfId="2900" xr:uid="{00000000-0005-0000-0000-000048060000}"/>
     <cellStyle name="Bad 43" xfId="2901" xr:uid="{00000000-0005-0000-0000-000049060000}"/>
+    <cellStyle name="Bad 44" xfId="5000" xr:uid="{4CE9BC80-A667-4191-8796-5519615EA2DA}"/>
     <cellStyle name="Bad 5" xfId="2902" xr:uid="{00000000-0005-0000-0000-00004A060000}"/>
     <cellStyle name="Bad 5 2" xfId="2903" xr:uid="{00000000-0005-0000-0000-00004B060000}"/>
     <cellStyle name="Bad 6" xfId="2904" xr:uid="{00000000-0005-0000-0000-00004C060000}"/>
@@ -8667,9 +9246,14 @@
     <cellStyle name="Bad 9" xfId="2908" xr:uid="{00000000-0005-0000-0000-000050060000}"/>
     <cellStyle name="Berechnung" xfId="2909" xr:uid="{00000000-0005-0000-0000-000051060000}"/>
     <cellStyle name="Bold GHG Numbers (0.00)" xfId="2910" xr:uid="{00000000-0005-0000-0000-000052060000}"/>
+    <cellStyle name="Calc-All-Same" xfId="5032" xr:uid="{BD7EA13B-50E6-4919-949B-79CCFF8B52CF}"/>
+    <cellStyle name="Calc-All-Same 2" xfId="5054" xr:uid="{C2B8AFF2-D3B8-43DC-B0FC-C8F453CB97B2}"/>
+    <cellStyle name="Calc-All-Same+Hardcoded" xfId="5033" xr:uid="{5B030111-B911-4821-8115-030739947721}"/>
     <cellStyle name="Calcolo 2" xfId="395" xr:uid="{00000000-0005-0000-0000-000053060000}"/>
     <cellStyle name="Calc-Some-Ext" xfId="16" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Calc-Some-Ext+Hardcoded" xfId="5034" xr:uid="{F6DD1ACB-213B-4CFF-8A18-FF3D3D6B97C0}"/>
     <cellStyle name="Calc-Some-Int" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Calc-Some-Int+Hardcoded" xfId="5035" xr:uid="{6DA7E5A0-AB9B-48C3-8111-19CFEBCE3BA0}"/>
     <cellStyle name="Calculation 10" xfId="2911" xr:uid="{00000000-0005-0000-0000-000054060000}"/>
     <cellStyle name="Calculation 11" xfId="2912" xr:uid="{00000000-0005-0000-0000-000055060000}"/>
     <cellStyle name="Calculation 12" xfId="2913" xr:uid="{00000000-0005-0000-0000-000056060000}"/>
@@ -8720,6 +9304,7 @@
     <cellStyle name="Calculation 41" xfId="2948" xr:uid="{00000000-0005-0000-0000-000083060000}"/>
     <cellStyle name="Calculation 42" xfId="2949" xr:uid="{00000000-0005-0000-0000-000084060000}"/>
     <cellStyle name="Calculation 43" xfId="2950" xr:uid="{00000000-0005-0000-0000-000085060000}"/>
+    <cellStyle name="Calculation 44" xfId="5001" xr:uid="{2357B4A1-5E81-4357-90B0-83DA59EFC3B4}"/>
     <cellStyle name="Calculation 5" xfId="2951" xr:uid="{00000000-0005-0000-0000-000086060000}"/>
     <cellStyle name="Calculation 5 2" xfId="2952" xr:uid="{00000000-0005-0000-0000-000087060000}"/>
     <cellStyle name="Calculation 6" xfId="2953" xr:uid="{00000000-0005-0000-0000-000088060000}"/>
@@ -8729,6 +9314,10 @@
     <cellStyle name="Calculation 9" xfId="2957" xr:uid="{00000000-0005-0000-0000-00008C060000}"/>
     <cellStyle name="Cella da controllare 2" xfId="406" xr:uid="{00000000-0005-0000-0000-00008D060000}"/>
     <cellStyle name="Char" xfId="10" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Char 2" xfId="5002" xr:uid="{62D95B25-CE20-4FEE-8327-347B2C6D6F64}"/>
+    <cellStyle name="Char 3" xfId="5055" xr:uid="{27444A55-4073-464D-A42F-DC299F91F830}"/>
+    <cellStyle name="Char 4" xfId="5056" xr:uid="{3D67BC59-20BF-4892-B9A6-D0119818DB87}"/>
+    <cellStyle name="Char 5" xfId="5085" xr:uid="{76CC5624-0A35-4FF8-97B8-8BEFE3F677C9}"/>
     <cellStyle name="Check Cell 10" xfId="2958" xr:uid="{00000000-0005-0000-0000-00008E060000}"/>
     <cellStyle name="Check Cell 11" xfId="2959" xr:uid="{00000000-0005-0000-0000-00008F060000}"/>
     <cellStyle name="Check Cell 12" xfId="2960" xr:uid="{00000000-0005-0000-0000-000090060000}"/>
@@ -8776,6 +9365,7 @@
     <cellStyle name="Check Cell 41" xfId="2992" xr:uid="{00000000-0005-0000-0000-0000BA060000}"/>
     <cellStyle name="Check Cell 42" xfId="2993" xr:uid="{00000000-0005-0000-0000-0000BB060000}"/>
     <cellStyle name="Check Cell 43" xfId="2994" xr:uid="{00000000-0005-0000-0000-0000BC060000}"/>
+    <cellStyle name="Check Cell 44" xfId="5003" xr:uid="{D30285CC-6461-4DA3-A596-3D669C4F07F1}"/>
     <cellStyle name="Check Cell 5" xfId="2995" xr:uid="{00000000-0005-0000-0000-0000BD060000}"/>
     <cellStyle name="Check Cell 5 2" xfId="2996" xr:uid="{00000000-0005-0000-0000-0000BE060000}"/>
     <cellStyle name="Check Cell 6" xfId="2997" xr:uid="{00000000-0005-0000-0000-0000BF060000}"/>
@@ -8784,9 +9374,13 @@
     <cellStyle name="Check Cell 8" xfId="3000" xr:uid="{00000000-0005-0000-0000-0000C2060000}"/>
     <cellStyle name="Check Cell 9" xfId="3001" xr:uid="{00000000-0005-0000-0000-0000C3060000}"/>
     <cellStyle name="coin" xfId="3002" xr:uid="{00000000-0005-0000-0000-0000C4060000}"/>
+    <cellStyle name="Column_Heading_RP" xfId="5083" xr:uid="{1BC6E1AA-4457-42BC-BD58-2DA81D856E22}"/>
     <cellStyle name="Comma [0] 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Comma [0] 2 10" xfId="417" xr:uid="{00000000-0005-0000-0000-0000C5060000}"/>
     <cellStyle name="Comma [0] 2 10 2" xfId="3003" xr:uid="{00000000-0005-0000-0000-0000C6060000}"/>
+    <cellStyle name="Comma [0] 2 11" xfId="5004" xr:uid="{E34FF163-C429-4D8A-AA8F-8F62E8BD5BBB}"/>
+    <cellStyle name="Comma [0] 2 12" xfId="4974" xr:uid="{BFCC3DB0-338E-4C45-877E-A7F73F50A3C8}"/>
+    <cellStyle name="Comma [0] 2 13" xfId="4968" xr:uid="{08162164-EE20-4444-A75E-1C8C02EB3043}"/>
     <cellStyle name="Comma [0] 2 2" xfId="418" xr:uid="{00000000-0005-0000-0000-0000C7060000}"/>
     <cellStyle name="Comma [0] 2 2 2" xfId="3004" xr:uid="{00000000-0005-0000-0000-0000C8060000}"/>
     <cellStyle name="Comma [0] 2 3" xfId="419" xr:uid="{00000000-0005-0000-0000-0000C9060000}"/>
@@ -8803,6 +9397,7 @@
     <cellStyle name="Comma [0] 2 8 2" xfId="3010" xr:uid="{00000000-0005-0000-0000-0000D4060000}"/>
     <cellStyle name="Comma [0] 2 9" xfId="425" xr:uid="{00000000-0005-0000-0000-0000D5060000}"/>
     <cellStyle name="Comma [0] 2 9 2" xfId="3011" xr:uid="{00000000-0005-0000-0000-0000D6060000}"/>
+    <cellStyle name="Comma [0] 3" xfId="5036" xr:uid="{4176172D-8BC4-44E0-9785-58CE3653FAC3}"/>
     <cellStyle name="Comma 10" xfId="3012" xr:uid="{00000000-0005-0000-0000-0000D7060000}"/>
     <cellStyle name="Comma 10 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000D8060000}"/>
     <cellStyle name="Comma 10 2 10" xfId="427" xr:uid="{00000000-0005-0000-0000-0000D9060000}"/>
@@ -9057,10 +9652,13 @@
     <cellStyle name="Comma 2 2" xfId="553" xr:uid="{00000000-0005-0000-0000-0000D2070000}"/>
     <cellStyle name="Comma 2 2 2" xfId="3138" xr:uid="{00000000-0005-0000-0000-0000D3070000}"/>
     <cellStyle name="Comma 2 2 3" xfId="3137" xr:uid="{00000000-0005-0000-0000-0000D4070000}"/>
+    <cellStyle name="Comma 2 2 4" xfId="5037" xr:uid="{C1B8A837-2EA8-48E9-A5D7-979AB25FD78B}"/>
     <cellStyle name="Comma 2 20" xfId="3133" xr:uid="{00000000-0005-0000-0000-0000D5070000}"/>
+    <cellStyle name="Comma 2 21" xfId="5005" xr:uid="{35A3FD7A-E453-49DE-A3A9-1B637250D1C8}"/>
     <cellStyle name="Comma 2 3" xfId="554" xr:uid="{00000000-0005-0000-0000-0000D6070000}"/>
     <cellStyle name="Comma 2 3 2" xfId="3140" xr:uid="{00000000-0005-0000-0000-0000D7070000}"/>
     <cellStyle name="Comma 2 3 3" xfId="3139" xr:uid="{00000000-0005-0000-0000-0000D8070000}"/>
+    <cellStyle name="Comma 2 3 4" xfId="5057" xr:uid="{7009DA05-27DF-4226-AF61-4AB2E0E2D43B}"/>
     <cellStyle name="Comma 2 4" xfId="555" xr:uid="{00000000-0005-0000-0000-0000D9070000}"/>
     <cellStyle name="Comma 2 4 2" xfId="3142" xr:uid="{00000000-0005-0000-0000-0000DA070000}"/>
     <cellStyle name="Comma 2 4 3" xfId="3143" xr:uid="{00000000-0005-0000-0000-0000DB070000}"/>
@@ -9073,6 +9671,7 @@
     <cellStyle name="Comma 2_PrimaryEnergyPrices_TIMES" xfId="3144" xr:uid="{00000000-0005-0000-0000-0000E2070000}"/>
     <cellStyle name="Comma 3" xfId="561" xr:uid="{00000000-0005-0000-0000-0000E3070000}"/>
     <cellStyle name="Comma 3 10" xfId="3145" xr:uid="{00000000-0005-0000-0000-0000E4070000}"/>
+    <cellStyle name="Comma 3 11" xfId="5006" xr:uid="{598516AD-CE2A-43BB-92D0-A8DEEFD98ACB}"/>
     <cellStyle name="Comma 3 2" xfId="562" xr:uid="{00000000-0005-0000-0000-0000E5070000}"/>
     <cellStyle name="Comma 3 2 2" xfId="3147" xr:uid="{00000000-0005-0000-0000-0000E6070000}"/>
     <cellStyle name="Comma 3 2 3" xfId="3146" xr:uid="{00000000-0005-0000-0000-0000E7070000}"/>
@@ -9091,6 +9690,7 @@
     <cellStyle name="Comma 3 9" xfId="3154" xr:uid="{00000000-0005-0000-0000-0000F4070000}"/>
     <cellStyle name="Comma 4" xfId="569" xr:uid="{00000000-0005-0000-0000-0000F5070000}"/>
     <cellStyle name="Comma 4 10" xfId="3155" xr:uid="{00000000-0005-0000-0000-0000F6070000}"/>
+    <cellStyle name="Comma 4 11" xfId="5058" xr:uid="{79F9F096-A625-4304-96E1-292CC7F205BF}"/>
     <cellStyle name="Comma 4 2" xfId="570" xr:uid="{00000000-0005-0000-0000-0000F7070000}"/>
     <cellStyle name="Comma 4 2 2" xfId="3156" xr:uid="{00000000-0005-0000-0000-0000F8070000}"/>
     <cellStyle name="Comma 4 3" xfId="571" xr:uid="{00000000-0005-0000-0000-0000F9070000}"/>
@@ -9107,6 +9707,7 @@
     <cellStyle name="Comma 4 8 2" xfId="3162" xr:uid="{00000000-0005-0000-0000-000004080000}"/>
     <cellStyle name="Comma 4 9" xfId="3163" xr:uid="{00000000-0005-0000-0000-000005080000}"/>
     <cellStyle name="Comma 5" xfId="577" xr:uid="{00000000-0005-0000-0000-000006080000}"/>
+    <cellStyle name="Comma 5 10" xfId="5059" xr:uid="{938C410D-5504-4DFD-AAFE-0ED40E828A4D}"/>
     <cellStyle name="Comma 5 2" xfId="578" xr:uid="{00000000-0005-0000-0000-000007080000}"/>
     <cellStyle name="Comma 5 2 2" xfId="3165" xr:uid="{00000000-0005-0000-0000-000008080000}"/>
     <cellStyle name="Comma 5 3" xfId="579" xr:uid="{00000000-0005-0000-0000-000009080000}"/>
@@ -9124,6 +9725,7 @@
     <cellStyle name="Comma 5 8 2" xfId="3172" xr:uid="{00000000-0005-0000-0000-000015080000}"/>
     <cellStyle name="Comma 5 9" xfId="3164" xr:uid="{00000000-0005-0000-0000-000016080000}"/>
     <cellStyle name="Comma 6" xfId="585" xr:uid="{00000000-0005-0000-0000-000017080000}"/>
+    <cellStyle name="Comma 6 10" xfId="5060" xr:uid="{4B925014-F51E-4325-9DB2-4FAFEED278F6}"/>
     <cellStyle name="Comma 6 2" xfId="586" xr:uid="{00000000-0005-0000-0000-000018080000}"/>
     <cellStyle name="Comma 6 2 2" xfId="3174" xr:uid="{00000000-0005-0000-0000-000019080000}"/>
     <cellStyle name="Comma 6 3" xfId="587" xr:uid="{00000000-0005-0000-0000-00001A080000}"/>
@@ -9243,15 +9845,31 @@
     <cellStyle name="Comma 9 9" xfId="643" xr:uid="{00000000-0005-0000-0000-00008C080000}"/>
     <cellStyle name="Comma 9 9 2" xfId="3232" xr:uid="{00000000-0005-0000-0000-00008D080000}"/>
     <cellStyle name="Constants" xfId="3233" xr:uid="{00000000-0005-0000-0000-00008F080000}"/>
+    <cellStyle name="Currency [0] 2" xfId="5007" xr:uid="{880CD186-DDB6-46E3-8A90-D3D8016D7025}"/>
+    <cellStyle name="Currency [0] 3" xfId="5038" xr:uid="{B3C7D32B-13B7-4AAF-A1B3-CC502708F681}"/>
     <cellStyle name="Currency 2" xfId="3234" xr:uid="{00000000-0005-0000-0000-000090080000}"/>
     <cellStyle name="Currency 2 2" xfId="644" xr:uid="{00000000-0005-0000-0000-000091080000}"/>
+    <cellStyle name="Currency 3" xfId="5039" xr:uid="{9A17EEF9-5253-49A4-9783-46D135E15479}"/>
+    <cellStyle name="Currency 4" xfId="5061" xr:uid="{CD3CCD35-8D94-45C3-A23D-28DCB14DB125}"/>
+    <cellStyle name="Currency 5" xfId="5062" xr:uid="{6F95B9C3-B17A-4132-A5B6-EAAB943BC147}"/>
     <cellStyle name="CustomCellsOrange" xfId="3235" xr:uid="{00000000-0005-0000-0000-000092080000}"/>
     <cellStyle name="CustomizationCells" xfId="3236" xr:uid="{00000000-0005-0000-0000-000093080000}"/>
     <cellStyle name="CustomizationGreenCells" xfId="3237" xr:uid="{00000000-0005-0000-0000-000094080000}"/>
     <cellStyle name="Data" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Defn" xfId="14" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Defn 2" xfId="5063" xr:uid="{53E97C5A-0BD2-4A86-80BE-3E131374FECC}"/>
+    <cellStyle name="Defn 3" xfId="5084" xr:uid="{AE22A3C4-B8BD-4AB9-9E3A-069A9153AC34}"/>
     <cellStyle name="Desc" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Desc 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Desc 2 2" xfId="5064" xr:uid="{CD827FCE-7DC0-442F-BDB0-1C7329986CEF}"/>
+    <cellStyle name="Desc 2 3" xfId="4973" xr:uid="{4E067974-D544-4B60-AB3B-059C0684ECD4}"/>
+    <cellStyle name="Desc 2 4" xfId="4967" xr:uid="{59C54D53-9C68-4136-BF92-9178DF39D2A5}"/>
+    <cellStyle name="Desc 3" xfId="5065" xr:uid="{FB6EA251-4623-4E75-9943-4CD4A0FE4EE3}"/>
+    <cellStyle name="Desc 4" xfId="5008" xr:uid="{C0626DD3-5A5C-43C1-A990-D849E1340AC7}"/>
+    <cellStyle name="Desc 5" xfId="4972" xr:uid="{8600954E-AFAC-447D-953B-C7FE796CF090}"/>
+    <cellStyle name="Desc 6" xfId="4966" xr:uid="{148A63F3-E342-4229-9735-06256144A10D}"/>
+    <cellStyle name="Description" xfId="5009" xr:uid="{CFC7CFB5-48BB-40AE-92D9-9C83D83F9FC7}"/>
+    <cellStyle name="Direct Link" xfId="5040" xr:uid="{BAFD66FD-CCA1-4A5F-98DA-FE23DF64EEBA}"/>
     <cellStyle name="DocBox_EmptyRow" xfId="3238" xr:uid="{00000000-0005-0000-0000-000095080000}"/>
     <cellStyle name="donn_normal" xfId="3239" xr:uid="{00000000-0005-0000-0000-000096080000}"/>
     <cellStyle name="Eingabe" xfId="3240" xr:uid="{00000000-0005-0000-0000-000097080000}"/>
@@ -9409,6 +10027,7 @@
     <cellStyle name="Explanatory Text 41" xfId="3377" xr:uid="{00000000-0005-0000-0000-00002F090000}"/>
     <cellStyle name="Explanatory Text 42" xfId="3378" xr:uid="{00000000-0005-0000-0000-000030090000}"/>
     <cellStyle name="Explanatory Text 43" xfId="3379" xr:uid="{00000000-0005-0000-0000-000031090000}"/>
+    <cellStyle name="Explanatory Text 44" xfId="5010" xr:uid="{C044B259-4E17-480C-A304-F3F44ED587FE}"/>
     <cellStyle name="Explanatory Text 5" xfId="3380" xr:uid="{00000000-0005-0000-0000-000032090000}"/>
     <cellStyle name="Explanatory Text 5 2" xfId="3381" xr:uid="{00000000-0005-0000-0000-000033090000}"/>
     <cellStyle name="Explanatory Text 6" xfId="3382" xr:uid="{00000000-0005-0000-0000-000034090000}"/>
@@ -9418,6 +10037,9 @@
     <cellStyle name="Explanatory Text 9" xfId="3386" xr:uid="{00000000-0005-0000-0000-000038090000}"/>
     <cellStyle name="Float" xfId="3387" xr:uid="{00000000-0005-0000-0000-000039090000}"/>
     <cellStyle name="Float 2" xfId="3388" xr:uid="{00000000-0005-0000-0000-00003A090000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="5011" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink 2" xfId="5066" xr:uid="{604B00BF-93B2-4ADE-8240-2A5A26D0263E}"/>
+    <cellStyle name="Followed Hyperlink 3" xfId="5067" xr:uid="{8A6D81C8-9F4A-4BBF-A675-3E0924CBB28D}"/>
     <cellStyle name="Good 10" xfId="3389" xr:uid="{00000000-0005-0000-0000-00003B090000}"/>
     <cellStyle name="Good 11" xfId="3390" xr:uid="{00000000-0005-0000-0000-00003C090000}"/>
     <cellStyle name="Good 12" xfId="3391" xr:uid="{00000000-0005-0000-0000-00003D090000}"/>
@@ -9466,6 +10088,7 @@
     <cellStyle name="Good 4 2" xfId="3424" xr:uid="{00000000-0005-0000-0000-000068090000}"/>
     <cellStyle name="Good 40" xfId="3425" xr:uid="{00000000-0005-0000-0000-000069090000}"/>
     <cellStyle name="Good 41" xfId="3426" xr:uid="{00000000-0005-0000-0000-00006A090000}"/>
+    <cellStyle name="Good 42" xfId="5012" xr:uid="{DF9F54D1-9D9E-493F-BA12-B90091CC3C73}"/>
     <cellStyle name="Good 5" xfId="3427" xr:uid="{00000000-0005-0000-0000-00006B090000}"/>
     <cellStyle name="Good 5 2" xfId="3428" xr:uid="{00000000-0005-0000-0000-00006C090000}"/>
     <cellStyle name="Good 6" xfId="3429" xr:uid="{00000000-0005-0000-0000-00006D090000}"/>
@@ -9474,6 +10097,8 @@
     <cellStyle name="Good 8" xfId="3432" xr:uid="{00000000-0005-0000-0000-000070090000}"/>
     <cellStyle name="Good 9" xfId="3433" xr:uid="{00000000-0005-0000-0000-000071090000}"/>
     <cellStyle name="Gut" xfId="3434" xr:uid="{00000000-0005-0000-0000-000072090000}"/>
+    <cellStyle name="Hard Coded 0dp" xfId="5068" xr:uid="{B9503687-527D-4AE4-BD48-899C8CC33D3D}"/>
+    <cellStyle name="Hard Coded 2dp" xfId="5069" xr:uid="{9CF596C4-DBBD-4B7E-8BC0-887D6F9BD1BB}"/>
     <cellStyle name="Heading" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Heading 1 10" xfId="3435" xr:uid="{00000000-0005-0000-0000-000073090000}"/>
     <cellStyle name="Heading 1 11" xfId="3436" xr:uid="{00000000-0005-0000-0000-000074090000}"/>
@@ -9523,6 +10148,7 @@
     <cellStyle name="Heading 1 4 2" xfId="3470" xr:uid="{00000000-0005-0000-0000-0000A0090000}"/>
     <cellStyle name="Heading 1 40" xfId="3471" xr:uid="{00000000-0005-0000-0000-0000A1090000}"/>
     <cellStyle name="Heading 1 41" xfId="3472" xr:uid="{00000000-0005-0000-0000-0000A2090000}"/>
+    <cellStyle name="Heading 1 42" xfId="5013" xr:uid="{A749F3DF-A4A6-440E-A1DE-B97A75C9B33A}"/>
     <cellStyle name="Heading 1 5" xfId="3473" xr:uid="{00000000-0005-0000-0000-0000A3090000}"/>
     <cellStyle name="Heading 1 5 2" xfId="3474" xr:uid="{00000000-0005-0000-0000-0000A4090000}"/>
     <cellStyle name="Heading 1 6" xfId="3475" xr:uid="{00000000-0005-0000-0000-0000A5090000}"/>
@@ -9578,6 +10204,7 @@
     <cellStyle name="Heading 2 4 2" xfId="3515" xr:uid="{00000000-0005-0000-0000-0000D7090000}"/>
     <cellStyle name="Heading 2 40" xfId="3516" xr:uid="{00000000-0005-0000-0000-0000D8090000}"/>
     <cellStyle name="Heading 2 41" xfId="3517" xr:uid="{00000000-0005-0000-0000-0000D9090000}"/>
+    <cellStyle name="Heading 2 42" xfId="5014" xr:uid="{354A3656-CCFC-4F4D-90E8-0CBC9A9AB956}"/>
     <cellStyle name="Heading 2 5" xfId="3518" xr:uid="{00000000-0005-0000-0000-0000DA090000}"/>
     <cellStyle name="Heading 2 5 2" xfId="3519" xr:uid="{00000000-0005-0000-0000-0000DB090000}"/>
     <cellStyle name="Heading 2 6" xfId="3520" xr:uid="{00000000-0005-0000-0000-0000DC090000}"/>
@@ -9633,6 +10260,7 @@
     <cellStyle name="Heading 3 4 2" xfId="3560" xr:uid="{00000000-0005-0000-0000-00000E0A0000}"/>
     <cellStyle name="Heading 3 40" xfId="3561" xr:uid="{00000000-0005-0000-0000-00000F0A0000}"/>
     <cellStyle name="Heading 3 41" xfId="3562" xr:uid="{00000000-0005-0000-0000-0000100A0000}"/>
+    <cellStyle name="Heading 3 42" xfId="5015" xr:uid="{E039CFBB-A7F2-4AB7-A085-2515EF3B8127}"/>
     <cellStyle name="Heading 3 5" xfId="3563" xr:uid="{00000000-0005-0000-0000-0000110A0000}"/>
     <cellStyle name="Heading 3 5 2" xfId="3564" xr:uid="{00000000-0005-0000-0000-0000120A0000}"/>
     <cellStyle name="Heading 3 6" xfId="3565" xr:uid="{00000000-0005-0000-0000-0000130A0000}"/>
@@ -9688,6 +10316,7 @@
     <cellStyle name="Heading 4 4 2" xfId="3605" xr:uid="{00000000-0005-0000-0000-0000450A0000}"/>
     <cellStyle name="Heading 4 40" xfId="3606" xr:uid="{00000000-0005-0000-0000-0000460A0000}"/>
     <cellStyle name="Heading 4 41" xfId="3607" xr:uid="{00000000-0005-0000-0000-0000470A0000}"/>
+    <cellStyle name="Heading 4 42" xfId="5016" xr:uid="{A94C46B1-CA5B-49DF-804C-5E0C0330F483}"/>
     <cellStyle name="Heading 4 5" xfId="3608" xr:uid="{00000000-0005-0000-0000-0000480A0000}"/>
     <cellStyle name="Heading 4 5 2" xfId="3609" xr:uid="{00000000-0005-0000-0000-0000490A0000}"/>
     <cellStyle name="Heading 4 6" xfId="3610" xr:uid="{00000000-0005-0000-0000-00004A0A0000}"/>
@@ -9699,7 +10328,9 @@
     <cellStyle name="Hyperlink" xfId="20" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="710" xr:uid="{00000000-0005-0000-0000-0000500A0000}"/>
     <cellStyle name="Hyperlink 2 2" xfId="711" xr:uid="{00000000-0005-0000-0000-0000510A0000}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="5070" xr:uid="{1C359F85-F4C4-4C2D-B1C2-9EB907A52FCA}"/>
     <cellStyle name="Hyperlink 3" xfId="712" xr:uid="{00000000-0005-0000-0000-0000520A0000}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="5071" xr:uid="{EEDE9C83-9C21-4E30-A424-CAA874C205E9}"/>
     <cellStyle name="Input 10 2" xfId="3616" xr:uid="{00000000-0005-0000-0000-0000530A0000}"/>
     <cellStyle name="Input 11 2" xfId="3617" xr:uid="{00000000-0005-0000-0000-0000540A0000}"/>
     <cellStyle name="Input 12 2" xfId="3618" xr:uid="{00000000-0005-0000-0000-0000550A0000}"/>
@@ -9757,13 +10388,16 @@
     <cellStyle name="Input 5 2" xfId="3659" xr:uid="{00000000-0005-0000-0000-0000890A0000}"/>
     <cellStyle name="Input 6" xfId="3660" xr:uid="{00000000-0005-0000-0000-00008A0A0000}"/>
     <cellStyle name="Input 6 2" xfId="3661" xr:uid="{00000000-0005-0000-0000-00008B0A0000}"/>
+    <cellStyle name="Input 7" xfId="5017" xr:uid="{A23ECC4C-5FAD-4DD1-9CDE-BE873792CE0B}"/>
     <cellStyle name="Input 7 2" xfId="3662" xr:uid="{00000000-0005-0000-0000-00008C0A0000}"/>
     <cellStyle name="Input 8 2" xfId="3663" xr:uid="{00000000-0005-0000-0000-00008D0A0000}"/>
     <cellStyle name="Input 9 2" xfId="3664" xr:uid="{00000000-0005-0000-0000-00008E0A0000}"/>
     <cellStyle name="InputCells" xfId="3665" xr:uid="{00000000-0005-0000-0000-00008F0A0000}"/>
     <cellStyle name="InputCells12" xfId="3666" xr:uid="{00000000-0005-0000-0000-0000900A0000}"/>
     <cellStyle name="IntCells" xfId="3667" xr:uid="{00000000-0005-0000-0000-0000910A0000}"/>
+    <cellStyle name="Label" xfId="5041" xr:uid="{94F87562-D4CE-422B-AF50-857F40777349}"/>
     <cellStyle name="ligne_titre_0" xfId="3668" xr:uid="{00000000-0005-0000-0000-0000920A0000}"/>
+    <cellStyle name="Link to other cells in sheet" xfId="5042" xr:uid="{DDC48229-308D-4D2B-B2BC-1D0DE7D97DBA}"/>
     <cellStyle name="Linked Cell 10" xfId="3669" xr:uid="{00000000-0005-0000-0000-0000930A0000}"/>
     <cellStyle name="Linked Cell 11" xfId="3670" xr:uid="{00000000-0005-0000-0000-0000940A0000}"/>
     <cellStyle name="Linked Cell 12" xfId="3671" xr:uid="{00000000-0005-0000-0000-0000950A0000}"/>
@@ -9812,6 +10446,7 @@
     <cellStyle name="Linked Cell 4 2" xfId="3704" xr:uid="{00000000-0005-0000-0000-0000C00A0000}"/>
     <cellStyle name="Linked Cell 40" xfId="3705" xr:uid="{00000000-0005-0000-0000-0000C10A0000}"/>
     <cellStyle name="Linked Cell 41" xfId="3706" xr:uid="{00000000-0005-0000-0000-0000C20A0000}"/>
+    <cellStyle name="Linked Cell 42" xfId="5018" xr:uid="{C95F187E-08EA-4C02-B2FD-B24D78AFE8E8}"/>
     <cellStyle name="Linked Cell 5" xfId="3707" xr:uid="{00000000-0005-0000-0000-0000C30A0000}"/>
     <cellStyle name="Linked Cell 5 2" xfId="3708" xr:uid="{00000000-0005-0000-0000-0000C40A0000}"/>
     <cellStyle name="Linked Cell 6" xfId="3709" xr:uid="{00000000-0005-0000-0000-0000C50A0000}"/>
@@ -9819,6 +10454,8 @@
     <cellStyle name="Linked Cell 7" xfId="3711" xr:uid="{00000000-0005-0000-0000-0000C70A0000}"/>
     <cellStyle name="Linked Cell 8" xfId="3712" xr:uid="{00000000-0005-0000-0000-0000C80A0000}"/>
     <cellStyle name="Linked Cell 9" xfId="3713" xr:uid="{00000000-0005-0000-0000-0000C90A0000}"/>
+    <cellStyle name="Lookup sheet 0dp" xfId="5072" xr:uid="{5A94A657-7E56-4E0E-B38D-721EE5507339}"/>
+    <cellStyle name="Lookup sheet 2dp" xfId="5073" xr:uid="{BDE4DA76-8B82-4DB5-A44E-89A38571C1CF}"/>
     <cellStyle name="Migliaia_Oil&amp;Gas IFE ARC POLITO" xfId="3714" xr:uid="{00000000-0005-0000-0000-0000CA0A0000}"/>
     <cellStyle name="Neutral 10" xfId="3715" xr:uid="{00000000-0005-0000-0000-0000CB0A0000}"/>
     <cellStyle name="Neutral 11" xfId="3716" xr:uid="{00000000-0005-0000-0000-0000CC0A0000}"/>
@@ -9871,6 +10508,7 @@
     <cellStyle name="Neutral 41" xfId="3753" xr:uid="{00000000-0005-0000-0000-0000FB0A0000}"/>
     <cellStyle name="Neutral 42" xfId="3754" xr:uid="{00000000-0005-0000-0000-0000FC0A0000}"/>
     <cellStyle name="Neutral 43" xfId="3755" xr:uid="{00000000-0005-0000-0000-0000FD0A0000}"/>
+    <cellStyle name="Neutral 44" xfId="5019" xr:uid="{8C32B120-D4CA-426C-B366-7CEFA5244088}"/>
     <cellStyle name="Neutral 5" xfId="3756" xr:uid="{00000000-0005-0000-0000-0000FE0A0000}"/>
     <cellStyle name="Neutral 5 2" xfId="3757" xr:uid="{00000000-0005-0000-0000-0000FF0A0000}"/>
     <cellStyle name="Neutral 6" xfId="3758" xr:uid="{00000000-0005-0000-0000-0000000B0000}"/>
@@ -9882,6 +10520,7 @@
     <cellStyle name="Normal 10" xfId="22" xr:uid="{DD42E9CB-4209-4538-800C-977123D5DF2A}"/>
     <cellStyle name="Normal 10 2" xfId="744" xr:uid="{00000000-0005-0000-0000-0000070B0000}"/>
     <cellStyle name="Normal 10 2 2" xfId="3764" xr:uid="{00000000-0005-0000-0000-0000080B0000}"/>
+    <cellStyle name="Normal 10 2 2 2" xfId="5074" xr:uid="{B8FA1E5C-00E0-4417-AF63-60D5BCEA2A6B}"/>
     <cellStyle name="Normal 10 2 3" xfId="3763" xr:uid="{00000000-0005-0000-0000-0000090B0000}"/>
     <cellStyle name="Normal 10 3" xfId="745" xr:uid="{00000000-0005-0000-0000-00000A0B0000}"/>
     <cellStyle name="Normal 10 4" xfId="746" xr:uid="{00000000-0005-0000-0000-00000B0B0000}"/>
@@ -9889,6 +10528,7 @@
     <cellStyle name="Normal 10 6" xfId="748" xr:uid="{00000000-0005-0000-0000-00000D0B0000}"/>
     <cellStyle name="Normal 10 7" xfId="749" xr:uid="{00000000-0005-0000-0000-00000E0B0000}"/>
     <cellStyle name="Normal 10 8" xfId="750" xr:uid="{00000000-0005-0000-0000-00000F0B0000}"/>
+    <cellStyle name="Normal 10 9" xfId="5043" xr:uid="{3D86FF7A-03F6-4D3C-9ABC-48109E10AA4E}"/>
     <cellStyle name="Normal 11" xfId="751" xr:uid="{00000000-0005-0000-0000-0000100B0000}"/>
     <cellStyle name="Normal 11 2" xfId="752" xr:uid="{00000000-0005-0000-0000-0000110B0000}"/>
     <cellStyle name="Normal 11 2 2" xfId="3766" xr:uid="{00000000-0005-0000-0000-0000120B0000}"/>
@@ -9899,6 +10539,7 @@
     <cellStyle name="Normal 11 6" xfId="756" xr:uid="{00000000-0005-0000-0000-0000170B0000}"/>
     <cellStyle name="Normal 11 7" xfId="757" xr:uid="{00000000-0005-0000-0000-0000180B0000}"/>
     <cellStyle name="Normal 11 8" xfId="758" xr:uid="{00000000-0005-0000-0000-0000190B0000}"/>
+    <cellStyle name="Normal 11 9" xfId="5044" xr:uid="{062E8827-1029-4204-A674-9A28B2BC629F}"/>
     <cellStyle name="Normal 12" xfId="759" xr:uid="{00000000-0005-0000-0000-00001A0B0000}"/>
     <cellStyle name="Normal 12 2" xfId="760" xr:uid="{00000000-0005-0000-0000-00001B0B0000}"/>
     <cellStyle name="Normal 12 3" xfId="761" xr:uid="{00000000-0005-0000-0000-00001C0B0000}"/>
@@ -10018,6 +10659,7 @@
     <cellStyle name="Normal 18 4" xfId="3781" xr:uid="{00000000-0005-0000-0000-00008E0B0000}"/>
     <cellStyle name="Normal 19" xfId="3784" xr:uid="{00000000-0005-0000-0000-00008F0B0000}"/>
     <cellStyle name="Normal 19 2" xfId="3785" xr:uid="{00000000-0005-0000-0000-0000900B0000}"/>
+    <cellStyle name="Normal 199" xfId="5045" xr:uid="{0E20DE3E-1D66-4197-83FA-441A1649694B}"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal 2 10" xfId="860" xr:uid="{00000000-0005-0000-0000-0000920B0000}"/>
     <cellStyle name="Normal 2 11" xfId="861" xr:uid="{00000000-0005-0000-0000-0000930B0000}"/>
@@ -10047,6 +10689,7 @@
     <cellStyle name="Normal 2 2 3" xfId="875" xr:uid="{00000000-0005-0000-0000-0000AB0B0000}"/>
     <cellStyle name="Normal 2 2 3 2" xfId="3797" xr:uid="{00000000-0005-0000-0000-0000AC0B0000}"/>
     <cellStyle name="Normal 2 2 3 3" xfId="3796" xr:uid="{00000000-0005-0000-0000-0000AD0B0000}"/>
+    <cellStyle name="Normal 2 2 3 4" xfId="5046" xr:uid="{4518C013-C40A-4F6C-B5FF-5C1F7F213B94}"/>
     <cellStyle name="Normal 2 2 4" xfId="876" xr:uid="{00000000-0005-0000-0000-0000AE0B0000}"/>
     <cellStyle name="Normal 2 2 4 2" xfId="3799" xr:uid="{00000000-0005-0000-0000-0000AF0B0000}"/>
     <cellStyle name="Normal 2 2 4 3" xfId="3798" xr:uid="{00000000-0005-0000-0000-0000B00B0000}"/>
@@ -10116,6 +10759,7 @@
     <cellStyle name="Normal 2 5 14" xfId="3831" xr:uid="{00000000-0005-0000-0000-0000EF0B0000}"/>
     <cellStyle name="Normal 2 5 15" xfId="3832" xr:uid="{00000000-0005-0000-0000-0000F00B0000}"/>
     <cellStyle name="Normal 2 5 16" xfId="3826" xr:uid="{00000000-0005-0000-0000-0000F10B0000}"/>
+    <cellStyle name="Normal 2 5 17" xfId="5081" xr:uid="{9F5B82C0-05D2-490A-9FC2-7A0D82929AAB}"/>
     <cellStyle name="Normal 2 5 2" xfId="3833" xr:uid="{00000000-0005-0000-0000-0000F20B0000}"/>
     <cellStyle name="Normal 2 5 3" xfId="3834" xr:uid="{00000000-0005-0000-0000-0000F30B0000}"/>
     <cellStyle name="Normal 2 5 4" xfId="3835" xr:uid="{00000000-0005-0000-0000-0000F40B0000}"/>
@@ -10148,11 +10792,13 @@
     <cellStyle name="Normal 20 2" xfId="3858" xr:uid="{00000000-0005-0000-0000-00000F0C0000}"/>
     <cellStyle name="Normal 20 3" xfId="3859" xr:uid="{00000000-0005-0000-0000-0000100C0000}"/>
     <cellStyle name="Normal 20 4" xfId="3857" xr:uid="{00000000-0005-0000-0000-0000110C0000}"/>
+    <cellStyle name="Normal 209 2" xfId="5047" xr:uid="{7CEA8739-7F16-433F-838E-9EAD4E344DCF}"/>
     <cellStyle name="Normal 21" xfId="914" xr:uid="{00000000-0005-0000-0000-0000120C0000}"/>
     <cellStyle name="Normal 21 2" xfId="3861" xr:uid="{00000000-0005-0000-0000-0000130C0000}"/>
     <cellStyle name="Normal 21 2 2" xfId="3862" xr:uid="{00000000-0005-0000-0000-0000140C0000}"/>
     <cellStyle name="Normal 21 3" xfId="3863" xr:uid="{00000000-0005-0000-0000-0000150C0000}"/>
     <cellStyle name="Normal 21 4" xfId="3860" xr:uid="{00000000-0005-0000-0000-0000160C0000}"/>
+    <cellStyle name="Normal 21 5" xfId="5048" xr:uid="{4B446328-2C54-4166-A8CB-A885BAD602D5}"/>
     <cellStyle name="Normal 21_Scen_XBase" xfId="3864" xr:uid="{00000000-0005-0000-0000-0000170C0000}"/>
     <cellStyle name="Normal 22" xfId="915" xr:uid="{00000000-0005-0000-0000-0000180C0000}"/>
     <cellStyle name="Normal 22 2" xfId="3866" xr:uid="{00000000-0005-0000-0000-0000190C0000}"/>
@@ -10410,6 +11056,7 @@
     <cellStyle name="Normal 5 3 7" xfId="1066" xr:uid="{00000000-0005-0000-0000-0000140D0000}"/>
     <cellStyle name="Normal 5 3 8" xfId="1067" xr:uid="{00000000-0005-0000-0000-0000150D0000}"/>
     <cellStyle name="Normal 5 3 9" xfId="3965" xr:uid="{00000000-0005-0000-0000-0000160D0000}"/>
+    <cellStyle name="Normal 5 33" xfId="5049" xr:uid="{75510685-D5C3-4B78-A170-BA22754675CE}"/>
     <cellStyle name="Normal 5 4" xfId="1068" xr:uid="{00000000-0005-0000-0000-0000170D0000}"/>
     <cellStyle name="Normal 5 4 2" xfId="1069" xr:uid="{00000000-0005-0000-0000-0000180D0000}"/>
     <cellStyle name="Normal 5 4 3" xfId="1070" xr:uid="{00000000-0005-0000-0000-0000190D0000}"/>
@@ -10815,6 +11462,7 @@
     <cellStyle name="Output 41" xfId="4172" xr:uid="{00000000-0005-0000-0000-0000AA0E0000}"/>
     <cellStyle name="Output 42" xfId="4173" xr:uid="{00000000-0005-0000-0000-0000AB0E0000}"/>
     <cellStyle name="Output 43" xfId="4174" xr:uid="{00000000-0005-0000-0000-0000AC0E0000}"/>
+    <cellStyle name="Output 44" xfId="5020" xr:uid="{2E301079-125E-4C41-B7A2-5A51F285C85F}"/>
     <cellStyle name="Output 5" xfId="4175" xr:uid="{00000000-0005-0000-0000-0000AD0E0000}"/>
     <cellStyle name="Output 5 2" xfId="4176" xr:uid="{00000000-0005-0000-0000-0000AE0E0000}"/>
     <cellStyle name="Output 6" xfId="4177" xr:uid="{00000000-0005-0000-0000-0000AF0E0000}"/>
@@ -11202,6 +11850,7 @@
     <cellStyle name="Percent 2 2 6" xfId="1474" xr:uid="{00000000-0005-0000-0000-00002C100000}"/>
     <cellStyle name="Percent 2 2 7" xfId="1475" xr:uid="{00000000-0005-0000-0000-00002D100000}"/>
     <cellStyle name="Percent 2 2 8" xfId="1476" xr:uid="{00000000-0005-0000-0000-00002E100000}"/>
+    <cellStyle name="Percent 2 2 9" xfId="5075" xr:uid="{22776117-A493-48D5-9A6B-EFCDDDA6E86C}"/>
     <cellStyle name="Percent 2 20" xfId="4347" xr:uid="{00000000-0005-0000-0000-00002F100000}"/>
     <cellStyle name="Percent 2 20 2" xfId="4348" xr:uid="{00000000-0005-0000-0000-000030100000}"/>
     <cellStyle name="Percent 2 21" xfId="4349" xr:uid="{00000000-0005-0000-0000-000031100000}"/>
@@ -11435,6 +12084,7 @@
     <cellStyle name="Percent 3 26" xfId="4519" xr:uid="{00000000-0005-0000-0000-000015110000}"/>
     <cellStyle name="Percent 3 27" xfId="4520" xr:uid="{00000000-0005-0000-0000-000016110000}"/>
     <cellStyle name="Percent 3 28" xfId="4521" xr:uid="{00000000-0005-0000-0000-000017110000}"/>
+    <cellStyle name="Percent 3 29" xfId="5050" xr:uid="{90D1B627-A540-4D4D-8506-20361604D9AE}"/>
     <cellStyle name="Percent 3 3" xfId="1535" xr:uid="{00000000-0005-0000-0000-000018110000}"/>
     <cellStyle name="Percent 3 3 10" xfId="4522" xr:uid="{00000000-0005-0000-0000-000019110000}"/>
     <cellStyle name="Percent 3 3 11" xfId="4523" xr:uid="{00000000-0005-0000-0000-00001A110000}"/>
@@ -11774,7 +12424,11 @@
     <cellStyle name="Pilkku_Layo9704" xfId="4762" xr:uid="{00000000-0005-0000-0000-000068120000}"/>
     <cellStyle name="Pyör. luku_Layo9704" xfId="4763" xr:uid="{00000000-0005-0000-0000-000069120000}"/>
     <cellStyle name="Pyör. valuutta_Layo9704" xfId="4764" xr:uid="{00000000-0005-0000-0000-00006A120000}"/>
+    <cellStyle name="Redundant_elc" xfId="5076" xr:uid="{CF568B5B-4CEC-467B-B57D-8159F2F00717}"/>
+    <cellStyle name="RedundantIND" xfId="5051" xr:uid="{13ABABBF-25C7-4EE0-AA20-225E94759A90}"/>
+    <cellStyle name="RedundantIND 2" xfId="5082" xr:uid="{59E51C34-3810-4BE2-935D-7B195D0D6F8A}"/>
     <cellStyle name="Schlecht" xfId="4765" xr:uid="{00000000-0005-0000-0000-00006B120000}"/>
+    <cellStyle name="Set_Equal_2dp" xfId="5077" xr:uid="{86D92579-7190-4632-B2A0-A445D8B5BC85}"/>
     <cellStyle name="Shade" xfId="4766" xr:uid="{00000000-0005-0000-0000-00006C120000}"/>
     <cellStyle name="source" xfId="4767" xr:uid="{00000000-0005-0000-0000-00006D120000}"/>
     <cellStyle name="Standaard_Blad1" xfId="4768" xr:uid="{00000000-0005-0000-0000-00006E120000}"/>
@@ -11814,6 +12468,7 @@
     <cellStyle name="Title 2 10" xfId="1632" xr:uid="{00000000-0005-0000-0000-00008F120000}"/>
     <cellStyle name="Title 2 10 2" xfId="4800" xr:uid="{00000000-0005-0000-0000-000090120000}"/>
     <cellStyle name="Title 2 11" xfId="4801" xr:uid="{00000000-0005-0000-0000-000091120000}"/>
+    <cellStyle name="Title 2 12" xfId="5052" xr:uid="{98908B01-5085-499E-9D5A-490510C6EB88}"/>
     <cellStyle name="Title 2 2" xfId="1633" xr:uid="{00000000-0005-0000-0000-000092120000}"/>
     <cellStyle name="Title 2 2 2" xfId="4802" xr:uid="{00000000-0005-0000-0000-000093120000}"/>
     <cellStyle name="Title 2 3" xfId="1634" xr:uid="{00000000-0005-0000-0000-000094120000}"/>
@@ -11859,6 +12514,7 @@
     <cellStyle name="Title 41" xfId="4835" xr:uid="{00000000-0005-0000-0000-0000BC120000}"/>
     <cellStyle name="Title 42" xfId="4836" xr:uid="{00000000-0005-0000-0000-0000BD120000}"/>
     <cellStyle name="Title 43" xfId="4837" xr:uid="{00000000-0005-0000-0000-0000BE120000}"/>
+    <cellStyle name="Title 44" xfId="5021" xr:uid="{91ED0641-8F55-4105-A622-87A9576A6A09}"/>
     <cellStyle name="Title 5" xfId="4838" xr:uid="{00000000-0005-0000-0000-0000BF120000}"/>
     <cellStyle name="Title 5 2" xfId="4839" xr:uid="{00000000-0005-0000-0000-0000C0120000}"/>
     <cellStyle name="Title 6" xfId="4840" xr:uid="{00000000-0005-0000-0000-0000C1120000}"/>
@@ -11866,6 +12522,7 @@
     <cellStyle name="Title 7" xfId="4842" xr:uid="{00000000-0005-0000-0000-0000C3120000}"/>
     <cellStyle name="Title 8" xfId="4843" xr:uid="{00000000-0005-0000-0000-0000C4120000}"/>
     <cellStyle name="Title 9" xfId="4844" xr:uid="{00000000-0005-0000-0000-0000C5120000}"/>
+    <cellStyle name="Tmpl_Assumption" xfId="5078" xr:uid="{CBFEAB80-4437-4154-B5F7-FC29442F3363}"/>
     <cellStyle name="Total 10" xfId="4845" xr:uid="{00000000-0005-0000-0000-0000C6120000}"/>
     <cellStyle name="Total 11" xfId="4846" xr:uid="{00000000-0005-0000-0000-0000C7120000}"/>
     <cellStyle name="Total 12" xfId="4847" xr:uid="{00000000-0005-0000-0000-0000C8120000}"/>
@@ -11924,6 +12581,7 @@
     <cellStyle name="Total 40" xfId="4890" xr:uid="{00000000-0005-0000-0000-0000FD120000}"/>
     <cellStyle name="Total 41" xfId="4891" xr:uid="{00000000-0005-0000-0000-0000FE120000}"/>
     <cellStyle name="Total 42" xfId="4892" xr:uid="{00000000-0005-0000-0000-0000FF120000}"/>
+    <cellStyle name="Total 43" xfId="5022" xr:uid="{07CDF682-9820-4A1E-A1E4-EA2C49EACDA0}"/>
     <cellStyle name="Total 5" xfId="4893" xr:uid="{00000000-0005-0000-0000-000000130000}"/>
     <cellStyle name="Total 5 2" xfId="4894" xr:uid="{00000000-0005-0000-0000-000001130000}"/>
     <cellStyle name="Total 6" xfId="4895" xr:uid="{00000000-0005-0000-0000-000002130000}"/>
@@ -11938,6 +12596,8 @@
     <cellStyle name="Überschrift 4" xfId="4904" xr:uid="{00000000-0005-0000-0000-00000B130000}"/>
     <cellStyle name="Unit" xfId="9" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Unit 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Unit 2 2" xfId="5079" xr:uid="{C17E7A6D-9EBF-4979-B9DB-4D1A851EF244}"/>
+    <cellStyle name="Unit 2 3" xfId="5080" xr:uid="{A96BBCDD-EAB4-41C1-9AFC-005E6649A22C}"/>
     <cellStyle name="Valuutta_Layo9704" xfId="4905" xr:uid="{00000000-0005-0000-0000-00000C130000}"/>
     <cellStyle name="Verknüpfte Zelle" xfId="4906" xr:uid="{00000000-0005-0000-0000-00000D130000}"/>
     <cellStyle name="Warnender Text" xfId="4907" xr:uid="{00000000-0005-0000-0000-00000E130000}"/>
@@ -11996,6 +12656,7 @@
     <cellStyle name="Warning Text 4 2" xfId="4950" xr:uid="{00000000-0005-0000-0000-000043130000}"/>
     <cellStyle name="Warning Text 40" xfId="4951" xr:uid="{00000000-0005-0000-0000-000044130000}"/>
     <cellStyle name="Warning Text 41" xfId="4952" xr:uid="{00000000-0005-0000-0000-000045130000}"/>
+    <cellStyle name="Warning Text 42" xfId="5023" xr:uid="{79708E6A-B175-4223-9094-85193360B706}"/>
     <cellStyle name="Warning Text 5" xfId="4953" xr:uid="{00000000-0005-0000-0000-000046130000}"/>
     <cellStyle name="Warning Text 5 2" xfId="4954" xr:uid="{00000000-0005-0000-0000-000047130000}"/>
     <cellStyle name="Warning Text 6" xfId="4955" xr:uid="{00000000-0005-0000-0000-000048130000}"/>
@@ -12008,9 +12669,50 @@
     <cellStyle name="Обычный_2++" xfId="4962" xr:uid="{00000000-0005-0000-0000-00004F130000}"/>
     <cellStyle name="已访问的超链接" xfId="1662" xr:uid="{00000000-0005-0000-0000-000050130000}"/>
     <cellStyle name="已访问的超链接 2" xfId="4963" xr:uid="{00000000-0005-0000-0000-000051130000}"/>
+    <cellStyle name="已访问的超链接 3" xfId="4975" xr:uid="{641AA4FE-1309-4A56-A869-D19EF70C7FED}"/>
+    <cellStyle name="已访问的超链接 4" xfId="4969" xr:uid="{3ABF80F6-FA49-4E83-AD10-5F2E41A568F0}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Tmpl_Table" pivot="0" count="2" xr9:uid="{6D2ACC6F-4B09-40E7-8470-2E2786DDD393}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -13011,22 +13713,22 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="14.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="4" customWidth="1"/>
-    <col min="10" max="12" width="8.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="4" customWidth="1"/>
+    <col min="10" max="12" width="8.109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" style="4" customWidth="1"/>
     <col min="15" max="15" width="10" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="4" customWidth="1"/>
-    <col min="18" max="31" width="8.85546875" style="4"/>
-    <col min="32" max="32" width="21.42578125" style="4" customWidth="1"/>
-    <col min="33" max="38" width="8.85546875" style="4"/>
-    <col min="39" max="39" width="21.28515625" style="4" customWidth="1"/>
-    <col min="40" max="16384" width="8.85546875" style="4"/>
+    <col min="16" max="16" width="11.44140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" style="4" customWidth="1"/>
+    <col min="18" max="31" width="8.88671875" style="4"/>
+    <col min="32" max="32" width="21.44140625" style="4" customWidth="1"/>
+    <col min="33" max="38" width="8.88671875" style="4"/>
+    <col min="39" max="39" width="21.33203125" style="4" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13158,14 +13860,14 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1">
-      <c r="A17" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
+      <c r="A17" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
@@ -13201,15 +13903,15 @@
     </row>
     <row r="20" spans="1:14" ht="17.25" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
@@ -13221,15 +13923,15 @@
     </row>
     <row r="21" spans="1:14" ht="17.25" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+        <v>76</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
@@ -13241,22 +13943,22 @@
     </row>
     <row r="22" spans="1:14" ht="17.25" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+        <v>77</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>116</v>
+        <v>79</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -13434,6 +14136,7 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
   </mergeCells>
+  <phoneticPr fontId="92" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -13445,1626 +14148,839 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A2:AE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
-    <col min="10" max="19" width="11.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
+    <col min="10" max="19" width="11.109375" style="1" customWidth="1"/>
     <col min="20" max="21" width="12" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="2"/>
-    <col min="23" max="23" width="13.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="22" max="22" width="8.88671875" style="2"/>
+    <col min="23" max="23" width="8.88671875" style="49"/>
+    <col min="24" max="24" width="13.6640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="68.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="23.25">
-      <c r="A1" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="17"/>
+    <row r="2" spans="1:31" s="49" customFormat="1" ht="22.8">
+      <c r="A2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="23"/>
+    <row r="3" spans="1:31" s="49" customFormat="1">
+      <c r="A3" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
     </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="D3" s="22" t="s">
+    <row r="4" spans="1:31" s="49" customFormat="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="23"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="X4" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="23"/>
     </row>
-    <row r="4" spans="1:30" ht="25.5">
-      <c r="A4" s="34" t="s">
+    <row r="5" spans="1:31" s="49" customFormat="1" ht="39.6">
+      <c r="A5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="U4" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="W4" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="X4" s="37" t="s">
+      <c r="T5" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="X5" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="Y4" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z4" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA4" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB4" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC4" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD4" s="37" t="s">
-        <v>102</v>
+      <c r="Z5" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA5" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD5" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE5" s="35" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="77.25" thickBot="1">
-      <c r="A5" s="19" t="s">
+    <row r="6" spans="1:31" s="49" customFormat="1" ht="79.8" thickBot="1">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="W5" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
+      <c r="L6" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="19"/>
+      <c r="X6" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
     </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="24" t="s">
+    <row r="7" spans="1:31" s="49" customFormat="1">
+      <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="U6" s="24"/>
-      <c r="W6" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="X7" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
     </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="W7" s="21" t="str">
-        <f>A7</f>
-        <v>* Biomass pellet gasification</v>
-      </c>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
+    <row r="8" spans="1:31" s="49" customFormat="1">
+      <c r="A8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="X8" s="21" t="str">
+        <f>A8</f>
+        <v>* Electrolysis</v>
+      </c>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
     </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F8" s="1">
+    <row r="9" spans="1:31" s="49" customFormat="1">
+      <c r="A9" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="48">
+        <v>2013</v>
+      </c>
+      <c r="F9" s="48">
         <v>30</v>
       </c>
-      <c r="G8" s="1">
-        <v>-5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="J8" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="K8" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="L8" s="30">
-        <v>134.70479676993821</v>
-      </c>
-      <c r="M8" s="30">
-        <v>105.20956592627694</v>
-      </c>
-      <c r="N8" s="30">
-        <v>90.566687510928688</v>
-      </c>
-      <c r="O8" s="30">
-        <v>90.099547897387851</v>
-      </c>
-      <c r="P8" s="30">
-        <v>9.4293357738956747</v>
-      </c>
-      <c r="Q8" s="30">
-        <v>7.3646696148393858</v>
-      </c>
-      <c r="R8" s="30">
-        <v>6.3396681257650087</v>
-      </c>
-      <c r="S8" s="30">
-        <v>6.3069683528171501</v>
-      </c>
-      <c r="T8" s="32">
-        <f>T24*U24</f>
-        <v>98.56</v>
-      </c>
-      <c r="U8" s="32">
-        <f>-T8</f>
-        <v>-98.56</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X8" s="1" t="str">
-        <f>A8</f>
-        <v>SH2PCBIO_02</v>
-      </c>
-      <c r="Y8" s="1" t="str">
-        <f>B8</f>
-        <v>Hydrogen production - Centralized Biomass pellet gasification CCS</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F9" s="1">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-5</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G9" s="48">
+        <v>-2</v>
+      </c>
+      <c r="H9" s="48">
         <v>1</v>
       </c>
       <c r="I9" s="27">
         <v>0.9</v>
       </c>
       <c r="J9" s="27">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K9" s="27">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="L9" s="30">
-        <v>101.89819168990164</v>
+        <v>33.031619153587783</v>
       </c>
       <c r="M9" s="30">
-        <v>80.358976826887925</v>
+        <v>18.350899529770992</v>
       </c>
       <c r="N9" s="30">
-        <v>66.560878965396313</v>
+        <v>18.350899529770992</v>
       </c>
       <c r="O9" s="30">
-        <v>55.19434378448679</v>
+        <v>18.350899529770992</v>
       </c>
       <c r="P9" s="30">
-        <v>7.1328734182931148</v>
+        <v>1.6515809576793894</v>
       </c>
       <c r="Q9" s="30">
-        <v>5.6251283778821559</v>
-      </c>
-      <c r="R9" s="30">
-        <v>4.6592615275777423</v>
-      </c>
-      <c r="S9" s="30">
-        <v>3.8636040649140755</v>
-      </c>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1" t="str">
+        <v>0.9175449764885496</v>
+      </c>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="X9" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" s="48" t="str">
         <f>A9</f>
-        <v>SH2PCBIO_01</v>
-      </c>
-      <c r="Y9" s="1" t="str">
+        <v>SH2PCELC_01</v>
+      </c>
+      <c r="Z9" s="48" t="str">
         <f>B9</f>
-        <v>Hydrogen production - Centralized Biomass pellet gasification</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC9" s="1" t="s">
+        <v>Hydrogen production - Centralized Electrolysis</v>
+      </c>
+      <c r="AA9" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB9" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC9" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD9" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE9" s="48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="49" customFormat="1" ht="14.4">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="S10" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10" s="37">
+        <v>96.1</v>
+      </c>
+      <c r="U10" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+    </row>
+    <row r="11" spans="1:31" s="49" customFormat="1" ht="14.4">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="S11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" s="38">
+        <v>75.3</v>
+      </c>
+      <c r="U11" s="38">
+        <v>0.88</v>
+      </c>
+      <c r="V11" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="48"/>
+    </row>
+    <row r="12" spans="1:31" s="49" customFormat="1" ht="14.4">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="S12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="T12" s="37">
+        <v>56.1</v>
+      </c>
+      <c r="U12" s="37">
+        <v>0.95</v>
+      </c>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+    </row>
+    <row r="13" spans="1:31" s="49" customFormat="1" ht="14.4">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+    </row>
+    <row r="14" spans="1:31" s="49" customFormat="1" ht="22.8">
+      <c r="A14" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+    </row>
+    <row r="15" spans="1:31" s="49" customFormat="1">
+      <c r="A15" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+    </row>
+    <row r="16" spans="1:31" s="49" customFormat="1">
+      <c r="A16" s="40"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="X16" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="23"/>
+    </row>
+    <row r="17" spans="1:31" s="49" customFormat="1" ht="26.4">
+      <c r="A17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="X17" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y17" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA17" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB17" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC17" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD17" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE17" s="43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="49" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A18" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="X18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+    </row>
+    <row r="19" spans="1:31" s="49" customFormat="1">
+      <c r="A19" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="AD9" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="W10" s="21" t="str">
-        <f>A10</f>
-        <v>* Coal gasification</v>
-      </c>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B19" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F11" s="1">
-        <v>30</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-5</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="D19" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="49">
         <v>1</v>
       </c>
-      <c r="I11" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="J11" s="27">
-        <v>0.52</v>
-      </c>
-      <c r="K11" s="27">
-        <v>0.52</v>
-      </c>
-      <c r="L11" s="30">
-        <v>67.625326846854733</v>
-      </c>
-      <c r="M11" s="30">
-        <v>67.625326846854733</v>
-      </c>
-      <c r="N11" s="30">
-        <v>67.625326846854733</v>
-      </c>
-      <c r="O11" s="30">
-        <v>67.224577964066142</v>
-      </c>
-      <c r="P11" s="30">
-        <v>3.3812663423427369</v>
-      </c>
-      <c r="Q11" s="30">
-        <v>3.3812663423427369</v>
-      </c>
-      <c r="R11" s="30">
-        <v>3.3812663423427369</v>
-      </c>
-      <c r="S11" s="30">
-        <v>3.3612288982033074</v>
-      </c>
-      <c r="T11" s="32">
-        <f>T25*U25</f>
-        <v>86.49</v>
-      </c>
-      <c r="U11" s="32">
-        <f>T25-T11</f>
-        <v>9.61</v>
-      </c>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1" t="str">
-        <f>A11</f>
-        <v>SH2PCCOA_02</v>
-      </c>
-      <c r="Y11" s="1" t="str">
-        <f>B11</f>
-        <v>Hydrogen production - Centralized Coal gasification CCS</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F12" s="1">
-        <v>30</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="J12" s="27">
-        <v>0.65</v>
-      </c>
-      <c r="K12" s="27">
-        <v>0.65</v>
-      </c>
-      <c r="L12" s="30">
-        <v>44.134848052211275</v>
-      </c>
-      <c r="M12" s="30">
-        <v>43.810900050206286</v>
-      </c>
-      <c r="N12" s="30">
-        <v>43.810900050206286</v>
-      </c>
-      <c r="O12" s="30">
-        <v>43.819670386800574</v>
-      </c>
-      <c r="P12" s="30">
-        <v>2.2067424026105638</v>
-      </c>
-      <c r="Q12" s="30">
-        <v>2.1905450025103139</v>
-      </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1" t="str">
-        <f>A12</f>
-        <v>SH2PCCOA_01</v>
-      </c>
-      <c r="Y12" s="1" t="str">
-        <f>B12</f>
-        <v>Hydrogen production - Centralized Coal gasification</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="W13" s="21" t="str">
-        <f>A13</f>
-        <v>* Waste gasification</v>
-      </c>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F14" s="1">
-        <v>30</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-5</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="J14" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="K14" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="L14" s="30">
-        <v>236.60298845983985</v>
-      </c>
-      <c r="M14" s="30">
-        <v>131.99589153523956</v>
-      </c>
-      <c r="N14" s="30">
-        <v>112.7536471660608</v>
-      </c>
-      <c r="O14" s="30">
-        <v>108.49766249221678</v>
-      </c>
-      <c r="P14" s="30">
-        <v>16.562209192188792</v>
-      </c>
-      <c r="Q14" s="30">
-        <v>9.2397124074667705</v>
-      </c>
-      <c r="R14" s="30">
-        <v>7.8927553016242564</v>
-      </c>
-      <c r="S14" s="30">
-        <v>7.5948363744551743</v>
-      </c>
-      <c r="T14" s="32">
-        <f>T26*U26</f>
-        <v>66.263999999999996</v>
-      </c>
-      <c r="U14" s="32">
-        <f>T26-T14</f>
-        <v>9.0360000000000014</v>
-      </c>
-      <c r="X14" s="2" t="str">
-        <f>A14</f>
-        <v>SH2PCWAS_02</v>
-      </c>
-      <c r="Y14" s="2" t="str">
-        <f>B14</f>
-        <v>Hydrogen production - Centralized Waste gasification CCS</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F15" s="1">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-5</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="J15" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="30">
-        <v>203.79638337980327</v>
-      </c>
-      <c r="M15" s="30">
-        <v>107.14530243585057</v>
-      </c>
-      <c r="N15" s="30">
-        <v>88.747838620528412</v>
-      </c>
-      <c r="O15" s="30">
-        <v>73.592458379315701</v>
-      </c>
-      <c r="P15" s="30">
-        <v>14.26574683658623</v>
-      </c>
-      <c r="Q15" s="30">
-        <v>7.5001711705095406</v>
-      </c>
-      <c r="R15" s="30">
-        <v>6.2123487034369891</v>
-      </c>
-      <c r="S15" s="30">
-        <v>5.1514720865520998</v>
-      </c>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="X15" s="2" t="str">
-        <f>A15</f>
-        <v>SH2PCWAS_01</v>
-      </c>
-      <c r="Y15" s="2" t="str">
-        <f>B15</f>
-        <v>Hydrogen production - Centralized Waste gasification</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="W16" s="21" t="str">
-        <f>A16</f>
-        <v>* Natural gas steam reforming</v>
-      </c>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-    </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F17" s="1">
-        <v>30</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-4</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="J17" s="27">
-        <v>0.68</v>
-      </c>
-      <c r="K17" s="27">
+      <c r="F19" s="49">
+        <v>2013</v>
+      </c>
+      <c r="G19" s="49">
+        <v>20</v>
+      </c>
+      <c r="H19" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="I19" s="45">
         <v>0.75</v>
       </c>
-      <c r="L17" s="30">
-        <v>22.072833636285683</v>
-      </c>
-      <c r="M17" s="30">
-        <v>20.979622456681422</v>
-      </c>
-      <c r="N17" s="30">
-        <v>19.886411277077162</v>
-      </c>
-      <c r="O17" s="30">
-        <v>18.793200097472898</v>
-      </c>
-      <c r="P17" s="30">
-        <v>0.8829133454514273</v>
-      </c>
-      <c r="Q17" s="30">
-        <v>0.83918489826725695</v>
-      </c>
-      <c r="R17" s="30">
-        <v>0.79545645108308638</v>
-      </c>
-      <c r="S17" s="30">
-        <v>0.75172800389891603</v>
-      </c>
-      <c r="T17" s="32">
-        <f>T27*U27</f>
-        <v>53.295000000000002</v>
-      </c>
-      <c r="U17" s="32">
-        <f>T27-T17</f>
-        <v>2.8049999999999997</v>
-      </c>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1" t="str">
-        <f>A17</f>
-        <v>SH2PCGAS_02</v>
-      </c>
-      <c r="Y17" s="1" t="str">
-        <f>B17</f>
-        <v>Hydrogen production - Centralized Natural gas steam reforming CCS</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
-      <c r="A18" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F18" s="1">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="J18" s="27">
-        <v>0.73</v>
-      </c>
-      <c r="K18" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="L18" s="30">
-        <v>12.23393301984733</v>
-      </c>
-      <c r="M18" s="30">
-        <v>12.23393301984733</v>
-      </c>
-      <c r="N18" s="30">
-        <v>12.23393301984733</v>
-      </c>
-      <c r="O18" s="30">
-        <v>12.23393301984733</v>
-      </c>
-      <c r="P18" s="30">
-        <v>0.48935732079389321</v>
-      </c>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1" t="str">
-        <f>A18</f>
-        <v>SH2PCGAS_01</v>
-      </c>
-      <c r="Y18" s="1" t="str">
-        <f>B18</f>
-        <v>Hydrogen production - Centralized Natural gas steam reforming</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
-      <c r="A19" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="W19" s="21" t="str">
+      <c r="J19" s="45">
+        <v>0.85</v>
+      </c>
+      <c r="K19" s="46">
+        <v>79.340256372000013</v>
+      </c>
+      <c r="L19" s="46">
+        <v>19.529909260800004</v>
+      </c>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="X19" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y19" s="48" t="str">
         <f>A19</f>
-        <v>* Electrolysis</v>
-      </c>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-    </row>
-    <row r="20" spans="1:30">
-      <c r="A20" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F20" s="1">
-        <v>30</v>
-      </c>
-      <c r="G20" s="1">
-        <v>-2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="J20" s="27">
-        <v>0.75</v>
-      </c>
-      <c r="K20" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="L20" s="30">
-        <v>33.031619153587783</v>
-      </c>
-      <c r="M20" s="30">
-        <v>18.350899529770992</v>
-      </c>
-      <c r="N20" s="30">
-        <v>18.350899529770992</v>
-      </c>
-      <c r="O20" s="30">
-        <v>18.350899529770992</v>
-      </c>
-      <c r="P20" s="30">
-        <v>1.6515809576793894</v>
-      </c>
-      <c r="Q20" s="30">
-        <v>0.9175449764885496</v>
-      </c>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1" t="str">
-        <f>A20</f>
-        <v>SH2PCELC_01</v>
-      </c>
-      <c r="Y20" s="1" t="str">
-        <f>B20</f>
-        <v>Hydrogen production - Centralized Electrolysis</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="R23" s="2"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="U23" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="R24" s="2"/>
-      <c r="S24" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="T24" s="39">
-        <v>112</v>
-      </c>
-      <c r="U24" s="39">
-        <v>0.88</v>
-      </c>
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="R25" s="2"/>
-      <c r="S25" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="T25" s="39">
-        <v>96.1</v>
-      </c>
-      <c r="U25" s="39">
-        <v>0.9</v>
-      </c>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="1:30">
-      <c r="A26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="T26" s="42">
-        <v>75.3</v>
-      </c>
-      <c r="U26" s="42">
-        <v>0.88</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
-      <c r="A27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="T27" s="39">
-        <v>56.1</v>
-      </c>
-      <c r="U27" s="39">
-        <v>0.95</v>
-      </c>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:30" ht="23.25">
-      <c r="A28" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-    </row>
-    <row r="29" spans="1:30">
-      <c r="A29" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29" s="23"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="A30" s="48"/>
-      <c r="B30" s="2"/>
-      <c r="C30"/>
-      <c r="D30" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="W30" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="23"/>
-    </row>
-    <row r="31" spans="1:30" ht="25.5">
-      <c r="A31" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="K31" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="N31" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="O31" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="P31" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q31"/>
-      <c r="W31" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="X31" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z31" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA31" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB31" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC31" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD31" s="51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="15.75" thickBot="1">
-      <c r="A32" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="P32" s="52"/>
-      <c r="Q32"/>
-      <c r="W32" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-    </row>
-    <row r="33" spans="1:30">
-      <c r="A33" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>2013</v>
-      </c>
-      <c r="G33" s="2">
-        <v>20</v>
-      </c>
-      <c r="H33" s="53">
-        <v>0.9</v>
-      </c>
-      <c r="I33" s="53">
-        <v>0.65</v>
-      </c>
-      <c r="J33" s="53">
-        <v>0.65</v>
-      </c>
-      <c r="K33" s="54">
-        <v>54.92786979600001</v>
-      </c>
-      <c r="L33" s="54">
-        <v>12.206193288000001</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33"/>
-      <c r="W33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X33" s="1" t="str">
-        <f>A33</f>
-        <v>SH2PDGAS_01</v>
-      </c>
-      <c r="Y33" s="1" t="str">
-        <f>B33</f>
-        <v>Hydrogen production - Decentralized Natural gas steam reforming</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC33"/>
-      <c r="AD33" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30">
-      <c r="A34" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2013</v>
-      </c>
-      <c r="G34" s="2">
-        <v>20</v>
-      </c>
-      <c r="H34" s="53">
-        <v>0.95</v>
-      </c>
-      <c r="I34" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="J34" s="53">
-        <v>0.85</v>
-      </c>
-      <c r="K34" s="54">
-        <v>79.340256372000013</v>
-      </c>
-      <c r="L34" s="54">
-        <v>19.529909260800004</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34"/>
-      <c r="W34"/>
-      <c r="X34" s="1" t="str">
-        <f>A34</f>
         <v>SH2PDELC_01</v>
       </c>
-      <c r="Y34" s="1" t="str">
-        <f>B34</f>
+      <c r="Z19" s="48" t="str">
+        <f>B19</f>
         <v>Hydrogen production - Decentralized Electrolysis</v>
       </c>
-      <c r="Z34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC34"/>
-      <c r="AD34" s="1" t="s">
-        <v>106</v>
+      <c r="AA19" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB19" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC19" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="48" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="92" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -15081,122 +14997,122 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="16" width="16.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.88671875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="16" width="16.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="11.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.25">
+    <row r="1" spans="1:25" ht="22.8">
       <c r="A1" s="16" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="23" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="E3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
+      <c r="R3" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="S4" s="37" t="s">
+      <c r="R4" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="U4" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="V4" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="W4" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="X4" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y4" s="37" t="s">
-        <v>102</v>
+      <c r="T4" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" s="35" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="90" thickBot="1">
+    <row r="5" spans="1:25" ht="93" thickBot="1">
       <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
@@ -15226,33 +15142,33 @@
         <v>38</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
+        <v>56</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="24" t="s">
@@ -15273,24 +15189,24 @@
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="24" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
@@ -15302,7 +15218,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -15333,13 +15249,13 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="F8" s="1">
         <v>2013</v>
@@ -15375,7 +15291,7 @@
         <v>0.51266011809600009</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="S8" s="1" t="str">
         <f>A8</f>
@@ -15386,32 +15302,32 @@
         <v>Hydrogen liquefaction</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="K10" s="29">
         <v>0.2195</v>
@@ -15421,6 +15337,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="92" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -15434,127 +15351,127 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="18" width="14.28515625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="8.85546875" style="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="57.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5546875" style="1" customWidth="1"/>
+    <col min="5" max="18" width="14.33203125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="56.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="23.25">
+    <row r="1" spans="1:27" ht="22.8">
       <c r="A1" s="16" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="23" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="D3" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
+        <v>111</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
     </row>
-    <row r="4" spans="1:27" ht="25.5">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:27" ht="26.4">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="U4" s="37" t="s">
+      <c r="R4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="X4" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z4" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA4" s="37" t="s">
-        <v>102</v>
+      <c r="V4" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" s="35" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="102.75" thickBot="1">
+    <row r="5" spans="1:27" ht="106.2" thickBot="1">
       <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
@@ -15583,44 +15500,44 @@
         <v>38</v>
       </c>
       <c r="J5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
+      <c r="T5" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="26.4">
       <c r="A6" s="24" t="s">
         <v>19</v>
       </c>
@@ -15641,28 +15558,28 @@
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T6" s="24" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="U6" s="24"/>
       <c r="V6" s="24"/>
@@ -15674,7 +15591,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -15707,16 +15624,16 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="E8" s="1">
         <v>2013</v>
@@ -15757,7 +15674,7 @@
         <v>30</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="U8" s="1" t="str">
         <f t="shared" ref="U8:V10" si="0">A8</f>
@@ -15768,27 +15685,27 @@
         <v>Hydrogen Delivery - PIPELINE DISTRIBUTION HIGH-PRESSURE</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="E9" s="1">
         <v>2013</v>
@@ -15838,27 +15755,27 @@
         <v>Hydrogen Delivery - ROAD-TANKER DISTRIBUTION</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1">
         <v>2013</v>
@@ -15907,13 +15824,13 @@
         <v>Hydrogen Delivery - PIPELINE TRANSMISSION HIGH-PRESSURE</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -15933,6 +15850,7 @@
       <c r="D14" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="92" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15942,171 +15860,120 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="8.85546875" style="1"/>
-    <col min="23" max="23" width="2.7109375" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="8.88671875" style="1"/>
+    <col min="23" max="23" width="2.6640625" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="23.25">
+    <row r="1" spans="1:21" ht="22.8">
       <c r="A1" s="16" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="B1" s="17"/>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:21">
       <c r="A2" s="23" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
-      <c r="D3" s="35" t="s">
+    <row r="3" spans="1:21">
+      <c r="D3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="X3" s="43" t="s">
-        <v>163</v>
-      </c>
+      <c r="N3" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
     </row>
-    <row r="4" spans="1:39" ht="38.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:21" ht="26.4">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="34" t="s">
+      <c r="I4" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="32" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="O4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="X4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y4" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z4" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA4" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB4" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC4" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD4" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE4" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF4" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG4" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH4" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI4" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ4" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AL4" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM4" s="34" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="5" spans="1:39" ht="47.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:21" ht="47.25" customHeight="1" thickBot="1">
       <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
@@ -16130,77 +15997,29 @@
         <v>17</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="X5" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z5" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA5" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD5" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG5" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH5" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI5" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ5" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK5" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL5" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM5" s="19" t="s">
-        <v>84</v>
-      </c>
+      <c r="N5" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
     </row>
-    <row r="6" spans="1:39" ht="24.75" customHeight="1">
+    <row r="6" spans="1:21" ht="24.75" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>19</v>
       </c>
@@ -16217,16 +16036,16 @@
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="L6" s="24" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
@@ -16235,65 +16054,19 @@
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
-      <c r="X6" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y6" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB6" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC6" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD6" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE6" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF6" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG6" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH6" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI6" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ6" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK6" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL6" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM6" s="24" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1">
         <v>2013</v>
@@ -16320,7 +16093,7 @@
         <v>0.9</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="O7" s="1" t="str">
         <f>A7</f>
@@ -16331,78 +16104,30 @@
         <v>Hydrogen Storage - LARGE</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="X7" s="1">
-        <v>36.888143712574852</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>36.888143712574852</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>21.769517964071856</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>21.769517964071856</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>21.769517964071856</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>21.769517964071856</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>21.769517964071856</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>21.769517964071856</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>21.769517964071856</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>21.769517964071856</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2">
         <v>2013</v>
@@ -16437,36 +16162,35 @@
         <v>Hydrogen Storage - SMALL</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:21">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="92" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
-    <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4935B8855D2CD4A84AB51A7B8A3B83B" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6046aa80c6137ea7cd300941e6de6139">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="795b6ce3-4d29-4fa5-96ed-ea1b36830f13" xmlns:ns3="424ab569-3a9e-4e02-994b-fd1ed8ea43ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8866ff8f472ea66287faba2f38092fc5" ns2:_="" ns3:_="">
+    <xsd:import namespace="795b6ce3-4d29-4fa5-96ed-ea1b36830f13"/>
+    <xsd:import namespace="424ab569-3a9e-4e02-994b-fd1ed8ea43ac"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -16477,6 +16201,8 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -16484,7 +16210,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3a32fc56-8470-4d77-ad86-bef2a7229878" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="795b6ce3-4d29-4fa5-96ed-ea1b36830f13" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -16503,6 +16229,36 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="424ab569-3a9e-4e02-994b-fd1ed8ea43ac" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -16625,13 +16381,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D300163-177E-4A30-B3B1-5B2F8AD63594}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{087D185F-92EF-42F7-BB5C-65DF32C58C0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="795b6ce3-4d29-4fa5-96ed-ea1b36830f13"/>
+    <ds:schemaRef ds:uri="424ab569-3a9e-4e02-994b-fd1ed8ea43ac"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFB1D83F-2C91-42D6-B297-E8BF8E373EB0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C84C340F-40A4-4836-8E7A-67ECA799FFAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A43F3379-9E36-482E-A425-94319020F555}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5D25AEF-5EEE-4730-89DA-F522B2580678}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_Hydrogen.xlsx
+++ b/SubRES_TMPL/SubRES_Hydrogen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D1D3C1-6A8C-4F27-977E-6D2F9290367A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56188274-7A1E-481C-AEA8-6209693E48D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,107 +19,14 @@
     <sheet name="SUP_H2Delivery" sheetId="4" r:id="rId4"/>
     <sheet name="SUP_H2Storage" sheetId="11" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <definedNames>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="All_TP">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_US">#REF!,#REF!,#REF!</definedName>
-    <definedName name="Annual_Fuel_Consumption">#REF!</definedName>
-    <definedName name="Beta">#REF!</definedName>
-    <definedName name="body1ea">#REF!</definedName>
-    <definedName name="body1eb">#REF!</definedName>
-    <definedName name="body1fa">#REF!</definedName>
-    <definedName name="body1fb">#REF!</definedName>
-    <definedName name="body1ga">#REF!</definedName>
-    <definedName name="body1gb">#REF!</definedName>
-    <definedName name="body2ea">#REF!</definedName>
-    <definedName name="body2eb">#REF!</definedName>
-    <definedName name="body2f">#REF!</definedName>
-    <definedName name="body2fa">#REF!</definedName>
-    <definedName name="body2fb">#REF!</definedName>
-    <definedName name="body2ga">#REF!</definedName>
-    <definedName name="body2gb">#REF!</definedName>
-    <definedName name="body3ea">#REF!</definedName>
-    <definedName name="body3eb">#REF!</definedName>
-    <definedName name="body3fa">#REF!</definedName>
-    <definedName name="body3fb">#REF!</definedName>
-    <definedName name="body3ga">#REF!</definedName>
-    <definedName name="body3gb">#REF!</definedName>
-    <definedName name="body4ea">#REF!</definedName>
-    <definedName name="body4eb">#REF!</definedName>
-    <definedName name="body4f">#REF!</definedName>
-    <definedName name="body4fa">#REF!</definedName>
-    <definedName name="body4fb">#REF!</definedName>
-    <definedName name="body4ga">#REF!</definedName>
-    <definedName name="body4gb">#REF!</definedName>
-    <definedName name="Cadmium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="ChosenYear">[1]Cover!$G$117</definedName>
-    <definedName name="Chromium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="Copper_Content_ppm_wt">#REF!</definedName>
-    <definedName name="countrye">#REF!</definedName>
-    <definedName name="countryf">#REF!</definedName>
-    <definedName name="countryg">#REF!</definedName>
-    <definedName name="CRF_CountryName">[2]Sheet1!$C$4</definedName>
-    <definedName name="data_range">'[3]CSO data'!#REF!</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="EnergyService">[4]Tertiary!#REF!</definedName>
-    <definedName name="Eng">[1]Cover!$G$111</definedName>
-    <definedName name="Etiket">#REF!</definedName>
-    <definedName name="Evap_Control_perc">#REF!</definedName>
-    <definedName name="Evap_H_Share_perc">#REF!</definedName>
-    <definedName name="Evap_R_Share_perc">#REF!</definedName>
-    <definedName name="Evap_U_Share_perc">#REF!</definedName>
-    <definedName name="FID_1">[5]AGR_Fuels!$A$2</definedName>
-    <definedName name="Fuel_Injection_perc">#REF!</definedName>
-    <definedName name="Fuel_Specifications">#REF!</definedName>
-    <definedName name="H_C_Ratio">#REF!</definedName>
-    <definedName name="H_Share_perc">#REF!</definedName>
-    <definedName name="H_Speed_km_per_h">#REF!</definedName>
-    <definedName name="Improved_Fuel_Specs">#REF!</definedName>
-    <definedName name="Lead_Content_g_per_l">#REF!</definedName>
-    <definedName name="Max_Temperature_oC">#REF!</definedName>
-    <definedName name="Mean_Fleet_Mileage_km">#REF!</definedName>
-    <definedName name="Mileage_km">#REF!</definedName>
-    <definedName name="Mileage_km_per_year">#REF!</definedName>
-    <definedName name="Min_Temperature_oC">#REF!</definedName>
-    <definedName name="Nikel_Content_ppm_wt">#REF!</definedName>
-    <definedName name="O_C_Ratio">#REF!</definedName>
-    <definedName name="Population">#REF!</definedName>
-    <definedName name="qr_Profili_insmart_T20_quartieri">#REF!</definedName>
-    <definedName name="R_Share_perc">#REF!</definedName>
-    <definedName name="R_Speed_km_per_h">#REF!</definedName>
-    <definedName name="RetBE">[6]Macro1!#REF!</definedName>
-    <definedName name="RVP_and_beta">#REF!</definedName>
-    <definedName name="RVP_kPa">[7]RVP_kPa!$A$1:$B$13</definedName>
-    <definedName name="Selenium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="Sulphur_Content_perc_wt">#REF!</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="Temperatures">#REF!</definedName>
-    <definedName name="tiket">#REF!</definedName>
-    <definedName name="TP.Electricity_and_RES">#REF!</definedName>
-    <definedName name="TP.Petroleum">#REF!</definedName>
-    <definedName name="TP.Solids_and_Gases">#REF!</definedName>
-    <definedName name="U_Share_perc">#REF!</definedName>
-    <definedName name="U_Speed_km_per_h">#REF!</definedName>
-    <definedName name="US.Electricity_and_RES">#REF!</definedName>
-    <definedName name="US.Petroleum">#REF!</definedName>
-    <definedName name="US.Solids_and_Gases">#REF!</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="yeare">#REF!</definedName>
-    <definedName name="yearf">#REF!</definedName>
-    <definedName name="yearg">#REF!</definedName>
-    <definedName name="Zinc_Content_ppm_wt">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1358,574 +1265,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Start"/>
-      <sheetName val="Cover"/>
-      <sheetName val="Menu"/>
-      <sheetName val="Table1"/>
-      <sheetName val="Table2"/>
-      <sheetName val="Table3"/>
-      <sheetName val="Table4"/>
-      <sheetName val="Table5"/>
-      <sheetName val="Table6a"/>
-      <sheetName val="Table6b"/>
-      <sheetName val="Table6c"/>
-      <sheetName val="Table6d"/>
-      <sheetName val="Table7a"/>
-      <sheetName val="Table7b"/>
-      <sheetName val="Table8"/>
-      <sheetName val="TableEU-1"/>
-      <sheetName val="TableEU-2"/>
-      <sheetName val="GELE"/>
-      <sheetName val="GHEAT"/>
-      <sheetName val="NELE"/>
-      <sheetName val="NHEAT"/>
-      <sheetName val="ELET34"/>
-      <sheetName val="HEAT34"/>
-      <sheetName val="TAB5ELE"/>
-      <sheetName val="TAB5CHP"/>
-      <sheetName val="TAB5TOT"/>
-      <sheetName val="TAB5HEAT"/>
-      <sheetName val="TAB5CHPH"/>
-      <sheetName val="TAB5TOTH"/>
-      <sheetName val="TAB6ANTONS"/>
-      <sheetName val="TAB6CCTONS"/>
-      <sheetName val="TAB6OBCTONS"/>
-      <sheetName val="TAB6SCTONS"/>
-      <sheetName val="TAB6LIGTONS"/>
-      <sheetName val="TAB6PEATONS"/>
-      <sheetName val="TAB6PFUELTONS"/>
-      <sheetName val="TAB6COKEOCTONS"/>
-      <sheetName val="TAB6GASCOKETONS"/>
-      <sheetName val="TAB6COALTARTONS"/>
-      <sheetName val="TAB6BKBTONS"/>
-      <sheetName val="TAB6GWGASTJ"/>
-      <sheetName val="TAB6COGTJ"/>
-      <sheetName val="TAB6BFGTJ"/>
-      <sheetName val="TAB6OSGASTJ"/>
-      <sheetName val="TAB6CRUDOILTONS"/>
-      <sheetName val="TAB6NGLTONS"/>
-      <sheetName val="TAB6REFGASTONS"/>
-      <sheetName val="TAB6LPGTONS"/>
-      <sheetName val="TAB6NAPHTHATONS"/>
-      <sheetName val="TAB6KERJETONS"/>
-      <sheetName val="TAB6OTHKEROTONS"/>
-      <sheetName val="TAB6GASDIESTONS"/>
-      <sheetName val="TAB6HFUELTONS"/>
-      <sheetName val="TAB6BITUTONS"/>
-      <sheetName val="TAB6PETCOKETONS"/>
-      <sheetName val="TAB6OTHOILTONS"/>
-      <sheetName val="TAB6NGASTJ"/>
-      <sheetName val="TAB6INDWTJ"/>
-      <sheetName val="TAB6MSWRTJ"/>
-      <sheetName val="TAB6MSWNRTJ"/>
-      <sheetName val="TAB6WOODTJ"/>
-      <sheetName val="TAB6LANDGASTJ"/>
-      <sheetName val="TAB6SEWAGETJ"/>
-      <sheetName val="TAB6OTHBIOTJ"/>
-      <sheetName val="TAB6LIQBIOTONS"/>
-      <sheetName val="TAB6TOTAL"/>
-      <sheetName val="TAB7MAIN"/>
-      <sheetName val="TAB7AUTO"/>
-      <sheetName val="TAB8IMPE"/>
-      <sheetName val="TAB8IMPHC"/>
-      <sheetName val="TAB8EXPE"/>
-      <sheetName val="TAB8EXPHC"/>
-      <sheetName val="Remarks"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="105">
-          <cell r="D105">
-            <v>2010</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="G111">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="G117">
-            <v>2010</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="42">
-          <cell r="AE42" t="str">
-            <v>Menu</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>European Community</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Intro"/>
-      <sheetName val="EB2012"/>
-      <sheetName val="COM_Balance"/>
-      <sheetName val="COM_Commodities"/>
-      <sheetName val="COM_Processes"/>
-      <sheetName val="COM_FuelTechs"/>
-      <sheetName val="COM_EmiCoeffs"/>
-      <sheetName val="COM_CH"/>
-      <sheetName val="COM_CW"/>
-      <sheetName val="COM_CC"/>
-      <sheetName val="COM_CO"/>
-      <sheetName val="COM_PV"/>
-      <sheetName val="Commercial SEAI"/>
-      <sheetName val="Public SEAI"/>
-      <sheetName val="CSO data"/>
-      <sheetName val="Public BOC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7_Buildings managed by municipa"/>
-      <sheetName val="Tertiary"/>
-      <sheetName val="7_Buildings managed by muni (2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IEA Data"/>
-      <sheetName val="E&amp;D Drivers"/>
-      <sheetName val="AGR_Fuels"/>
-      <sheetName val="AGR"/>
-      <sheetName val="RES_Fuels"/>
-      <sheetName val="RH1"/>
-      <sheetName val="RH2"/>
-      <sheetName val="RH3"/>
-      <sheetName val="RH4"/>
-      <sheetName val="RC1"/>
-      <sheetName val="RC2"/>
-      <sheetName val="RC3"/>
-      <sheetName val="RC4"/>
-      <sheetName val="RHW"/>
-      <sheetName val="RRF"/>
-      <sheetName val="RCW"/>
-      <sheetName val="RCD"/>
-      <sheetName val="RK1"/>
-      <sheetName val="RK2"/>
-      <sheetName val="RK3"/>
-      <sheetName val="RK4"/>
-      <sheetName val="RDW"/>
-      <sheetName val="RME"/>
-      <sheetName val="RL1"/>
-      <sheetName val="RL2"/>
-      <sheetName val="RL3"/>
-      <sheetName val="RL4"/>
-      <sheetName val="COM_Fuels"/>
-      <sheetName val="CH1"/>
-      <sheetName val="CH2"/>
-      <sheetName val="CH3"/>
-      <sheetName val="CH4"/>
-      <sheetName val="CC1"/>
-      <sheetName val="CC2"/>
-      <sheetName val="CC3"/>
-      <sheetName val="CC4"/>
-      <sheetName val="CHW"/>
-      <sheetName val="CAA"/>
-      <sheetName val="CLA"/>
-      <sheetName val="ElastPar"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="Intro"/>
-      <sheetName val="TechRep"/>
-      <sheetName val="Other_HYDRO"/>
-      <sheetName val="Other_NUCL"/>
-      <sheetName val="Other_THERM"/>
-      <sheetName val="Other_CHP"/>
-      <sheetName val="Other_RENEW"/>
-      <sheetName val="Other_HEAT"/>
-      <sheetName val="ELC_FUELS"/>
-      <sheetName val="ELC"/>
-      <sheetName val="HEAT"/>
-      <sheetName val="CHP"/>
-      <sheetName val="ELC_EMI"/>
-      <sheetName val="Constant Table"/>
-      <sheetName val="ANS_ITEMS_DEL"/>
-      <sheetName val="ANS_ITEMS"/>
-      <sheetName val="ANS_TIDDATA"/>
-      <sheetName val="ANS_TSDATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>^FI_ST: TCH, PRC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Macro1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Population"/>
-      <sheetName val="Mileage_km"/>
-      <sheetName val="Mean_Fleet_Mileage_km"/>
-      <sheetName val="Fuel_Injection_perc"/>
-      <sheetName val="Evap_Control_perc"/>
-      <sheetName val="U_Speed_km_per_h"/>
-      <sheetName val="R_Speed_km_per_h"/>
-      <sheetName val="H_Speed_km_per_h"/>
-      <sheetName val="U_Share_perc"/>
-      <sheetName val="R_Share_perc"/>
-      <sheetName val="H_Share_perc"/>
-      <sheetName val="Evap_U_Share_perc"/>
-      <sheetName val="Evap_R_Share_perc"/>
-      <sheetName val="Evap_H_Share_perc"/>
-      <sheetName val="Min_Temperature_oC"/>
-      <sheetName val="Max_Temperature_oC"/>
-      <sheetName val="Temperatures"/>
-      <sheetName val="RVP_kPa"/>
-      <sheetName val="Beta"/>
-      <sheetName val="Fuel_Specifications"/>
-      <sheetName val="Improved_Fuel_Specs"/>
-      <sheetName val="Annual_Fuel_Consumption"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Month_</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>2005</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>January</v>
-          </cell>
-          <cell r="B2">
-            <v>88.7</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>February</v>
-          </cell>
-          <cell r="B3">
-            <v>87.9</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>March</v>
-          </cell>
-          <cell r="B4">
-            <v>85.7</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>April</v>
-          </cell>
-          <cell r="B5">
-            <v>72.900000000000006</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>May</v>
-          </cell>
-          <cell r="B6">
-            <v>62.8</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>June</v>
-          </cell>
-          <cell r="B7">
-            <v>59.6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>July</v>
-          </cell>
-          <cell r="B8">
-            <v>59.8</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>August</v>
-          </cell>
-          <cell r="B9">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>September</v>
-          </cell>
-          <cell r="B10">
-            <v>57.9</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>October</v>
-          </cell>
-          <cell r="B11">
-            <v>68.8</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>November</v>
-          </cell>
-          <cell r="B12">
-            <v>81.099999999999994</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>December</v>
-          </cell>
-          <cell r="B13">
-            <v>86.9</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4672,6 +4011,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4935B8855D2CD4A84AB51A7B8A3B83B" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6046aa80c6137ea7cd300941e6de6139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="795b6ce3-4d29-4fa5-96ed-ea1b36830f13" xmlns:ns3="424ab569-3a9e-4e02-994b-fd1ed8ea43ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8866ff8f472ea66287faba2f38092fc5" ns2:_="" ns3:_="">
     <xsd:import namespace="795b6ce3-4d29-4fa5-96ed-ea1b36830f13"/>
@@ -4850,22 +4204,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5D25AEF-5EEE-4730-89DA-F522B2580678}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C84C340F-40A4-4836-8E7A-67ECA799FFAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{087D185F-92EF-42F7-BB5C-65DF32C58C0D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4882,21 +4238,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C84C340F-40A4-4836-8E7A-67ECA799FFAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5D25AEF-5EEE-4730-89DA-F522B2580678}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>